--- a/data/NREL-118 7 clusters Investment/Power_ThermalGen.xlsx
+++ b/data/NREL-118 7 clusters Investment/Power_ThermalGen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\NREL-118 7 clusters Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801A445-2DAC-4DD4-853D-745FFC47BCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B19CF9-3B5E-47D1-B6A2-C6B10CFCBFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11790" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="333">
   <si>
     <t>Power - Thermal Generators</t>
   </si>
@@ -1658,13 +1658,13 @@
   <sheetPr>
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="A1:AE199"/>
+  <dimension ref="A1:AE303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="I164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="W137" s="22">
-        <f t="shared" ref="W137:W199" si="2">(G137-H137)/P137*Q137*5000</f>
+        <f t="shared" ref="W137:W166" si="2">(G137-H137)/P137*Q137*5000</f>
         <v>890442.94777754194</v>
       </c>
       <c r="X137" s="16"/>
@@ -14336,8 +14336,8 @@
         <v>1</v>
       </c>
       <c r="W167" s="22">
-        <f t="shared" si="2"/>
-        <v>2774742.0070570693</v>
+        <f>(G167-H167)/P167*Q167*1000</f>
+        <v>554948.40141141391</v>
       </c>
       <c r="X167" s="16"/>
       <c r="Y167" s="17"/>
@@ -14412,8 +14412,8 @@
         <v>1</v>
       </c>
       <c r="W168" s="22">
-        <f t="shared" si="2"/>
-        <v>2022464.9710219612</v>
+        <f t="shared" ref="W168:W199" si="3">(G168-H168)/P168*Q168*1000</f>
+        <v>404492.99420439225</v>
       </c>
       <c r="X168" s="16"/>
       <c r="Y168" s="17"/>
@@ -14488,8 +14488,8 @@
         <v>1</v>
       </c>
       <c r="W169" s="22">
-        <f t="shared" si="2"/>
-        <v>2022464.9710219612</v>
+        <f t="shared" si="3"/>
+        <v>404492.99420439225</v>
       </c>
       <c r="X169" s="16"/>
       <c r="Y169" s="17"/>
@@ -14564,8 +14564,8 @@
         <v>1</v>
       </c>
       <c r="W170" s="22">
-        <f t="shared" si="2"/>
-        <v>2800021.4108700538</v>
+        <f t="shared" si="3"/>
+        <v>560004.28217401076</v>
       </c>
       <c r="X170" s="16"/>
       <c r="Y170" s="17"/>
@@ -14640,8 +14640,8 @@
         <v>1</v>
       </c>
       <c r="W171" s="22">
-        <f t="shared" si="2"/>
-        <v>2800021.4108700538</v>
+        <f t="shared" si="3"/>
+        <v>560004.28217401076</v>
       </c>
       <c r="X171" s="16"/>
       <c r="Y171" s="17"/>
@@ -14716,8 +14716,8 @@
         <v>1</v>
       </c>
       <c r="W172" s="22">
-        <f t="shared" si="2"/>
-        <v>2499745.982447268</v>
+        <f t="shared" si="3"/>
+        <v>499949.19648945366</v>
       </c>
       <c r="X172" s="16"/>
       <c r="Y172" s="17"/>
@@ -14792,8 +14792,8 @@
         <v>1</v>
       </c>
       <c r="W173" s="22">
-        <f t="shared" si="2"/>
-        <v>2106422.3523547044</v>
+        <f t="shared" si="3"/>
+        <v>421284.47047094093</v>
       </c>
       <c r="X173" s="16"/>
       <c r="Y173" s="17"/>
@@ -14868,8 +14868,8 @@
         <v>1</v>
       </c>
       <c r="W174" s="22">
-        <f t="shared" si="2"/>
-        <v>951911.50431392272</v>
+        <f t="shared" si="3"/>
+        <v>190382.30086278456</v>
       </c>
       <c r="X174" s="16"/>
       <c r="Y174" s="17"/>
@@ -14944,8 +14944,8 @@
         <v>1</v>
       </c>
       <c r="W175" s="22">
-        <f t="shared" si="2"/>
-        <v>951911.50431392272</v>
+        <f t="shared" si="3"/>
+        <v>190382.30086278456</v>
       </c>
       <c r="X175" s="16"/>
       <c r="Y175" s="17"/>
@@ -15020,8 +15020,8 @@
         <v>1</v>
       </c>
       <c r="W176" s="22">
-        <f t="shared" si="2"/>
-        <v>951911.50431392272</v>
+        <f t="shared" si="3"/>
+        <v>190382.30086278456</v>
       </c>
       <c r="X176" s="16"/>
       <c r="Y176" s="17"/>
@@ -15096,8 +15096,8 @@
         <v>1</v>
       </c>
       <c r="W177" s="22">
-        <f t="shared" si="2"/>
-        <v>905707.68402515526</v>
+        <f t="shared" si="3"/>
+        <v>181141.53680503106</v>
       </c>
       <c r="X177" s="16"/>
       <c r="Y177" s="17"/>
@@ -15172,8 +15172,8 @@
         <v>1</v>
       </c>
       <c r="W178" s="22">
-        <f t="shared" si="2"/>
-        <v>905707.68402515526</v>
+        <f t="shared" si="3"/>
+        <v>181141.53680503106</v>
       </c>
       <c r="X178" s="16"/>
       <c r="Y178" s="17"/>
@@ -15229,7 +15229,7 @@
       <c r="N179" s="14"/>
       <c r="O179" s="14"/>
       <c r="P179" s="21">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="Q179" s="15">
         <v>0.83090526197678505</v>
@@ -15248,8 +15248,8 @@
         <v>1</v>
       </c>
       <c r="W179" s="22">
-        <f t="shared" si="2"/>
-        <v>456997894.08723176</v>
+        <f t="shared" si="3"/>
+        <v>913995.78817446355</v>
       </c>
       <c r="X179" s="16"/>
       <c r="Y179" s="17"/>
@@ -15324,8 +15324,8 @@
         <v>1</v>
       </c>
       <c r="W180" s="22">
-        <f t="shared" si="2"/>
-        <v>329099.40976982767</v>
+        <f t="shared" si="3"/>
+        <v>65819.881953965538</v>
       </c>
       <c r="X180" s="16"/>
       <c r="Y180" s="17"/>
@@ -15400,8 +15400,8 @@
         <v>1</v>
       </c>
       <c r="W181" s="22">
-        <f t="shared" si="2"/>
-        <v>676285.02944134583</v>
+        <f t="shared" si="3"/>
+        <v>135257.00588826917</v>
       </c>
       <c r="X181" s="16"/>
       <c r="Y181" s="17"/>
@@ -15476,8 +15476,8 @@
         <v>1</v>
       </c>
       <c r="W182" s="22">
-        <f t="shared" si="2"/>
-        <v>676285.02944134583</v>
+        <f t="shared" si="3"/>
+        <v>135257.00588826917</v>
       </c>
       <c r="X182" s="16"/>
       <c r="Y182" s="17"/>
@@ -15552,8 +15552,8 @@
         <v>1</v>
       </c>
       <c r="W183" s="22">
-        <f t="shared" si="2"/>
-        <v>676285.02944134583</v>
+        <f t="shared" si="3"/>
+        <v>135257.00588826917</v>
       </c>
       <c r="X183" s="16"/>
       <c r="Y183" s="17"/>
@@ -15628,8 +15628,8 @@
         <v>1</v>
       </c>
       <c r="W184" s="22">
-        <f t="shared" si="2"/>
-        <v>676285.02944134583</v>
+        <f t="shared" si="3"/>
+        <v>135257.00588826917</v>
       </c>
       <c r="X184" s="16"/>
       <c r="Y184" s="17"/>
@@ -15704,8 +15704,8 @@
         <v>1</v>
       </c>
       <c r="W185" s="22">
-        <f t="shared" si="2"/>
-        <v>676285.02944134583</v>
+        <f t="shared" si="3"/>
+        <v>135257.00588826917</v>
       </c>
       <c r="X185" s="16"/>
       <c r="Y185" s="17"/>
@@ -15780,8 +15780,8 @@
         <v>1</v>
       </c>
       <c r="W186" s="22">
-        <f t="shared" si="2"/>
-        <v>676285.02944134583</v>
+        <f t="shared" si="3"/>
+        <v>135257.00588826917</v>
       </c>
       <c r="X186" s="16"/>
       <c r="Y186" s="17"/>
@@ -15856,8 +15856,8 @@
         <v>1</v>
       </c>
       <c r="W187" s="22">
-        <f t="shared" si="2"/>
-        <v>3062967.907056883</v>
+        <f t="shared" si="3"/>
+        <v>612593.5814113766</v>
       </c>
       <c r="X187" s="16"/>
       <c r="Y187" s="17"/>
@@ -15932,8 +15932,8 @@
         <v>1</v>
       </c>
       <c r="W188" s="22">
-        <f t="shared" si="2"/>
-        <v>25118069.822575495</v>
+        <f t="shared" si="3"/>
+        <v>5023613.9645150984</v>
       </c>
       <c r="X188" s="16"/>
       <c r="Y188" s="17"/>
@@ -16008,8 +16008,8 @@
         <v>1</v>
       </c>
       <c r="W189" s="22">
-        <f t="shared" si="2"/>
-        <v>24942601.885508001</v>
+        <f t="shared" si="3"/>
+        <v>4988520.3771016002</v>
       </c>
       <c r="X189" s="16"/>
       <c r="Y189" s="17"/>
@@ -16084,8 +16084,8 @@
         <v>1</v>
       </c>
       <c r="W190" s="22">
-        <f t="shared" si="2"/>
-        <v>57416222.167734124</v>
+        <f t="shared" si="3"/>
+        <v>11483244.433546824</v>
       </c>
       <c r="X190" s="16"/>
       <c r="Y190" s="17"/>
@@ -16160,8 +16160,8 @@
         <v>1</v>
       </c>
       <c r="W191" s="22">
-        <f t="shared" si="2"/>
-        <v>8159458.5311015006</v>
+        <f t="shared" si="3"/>
+        <v>1631891.7062203002</v>
       </c>
       <c r="X191" s="16"/>
       <c r="Y191" s="17"/>
@@ -16236,8 +16236,8 @@
         <v>1</v>
       </c>
       <c r="W192" s="22">
-        <f t="shared" si="2"/>
-        <v>8159458.5311015006</v>
+        <f t="shared" si="3"/>
+        <v>1631891.7062203002</v>
       </c>
       <c r="X192" s="16"/>
       <c r="Y192" s="17"/>
@@ -16312,8 +16312,8 @@
         <v>1</v>
       </c>
       <c r="W193" s="22">
-        <f t="shared" si="2"/>
-        <v>7598176.3865208309</v>
+        <f t="shared" si="3"/>
+        <v>1519635.2773041662</v>
       </c>
       <c r="X193" s="16"/>
       <c r="Y193" s="17"/>
@@ -16388,8 +16388,8 @@
         <v>1</v>
       </c>
       <c r="W194" s="22">
-        <f t="shared" si="2"/>
-        <v>7719875.235647846</v>
+        <f t="shared" si="3"/>
+        <v>1543975.0471295693</v>
       </c>
       <c r="X194" s="16"/>
       <c r="Y194" s="17"/>
@@ -16464,8 +16464,8 @@
         <v>1</v>
       </c>
       <c r="W195" s="22">
-        <f t="shared" si="2"/>
-        <v>22098111.162325319</v>
+        <f t="shared" si="3"/>
+        <v>4419622.2324650632</v>
       </c>
       <c r="X195" s="16"/>
       <c r="Y195" s="17"/>
@@ -16540,8 +16540,8 @@
         <v>1</v>
       </c>
       <c r="W196" s="22">
-        <f t="shared" si="2"/>
-        <v>25638209.279946391</v>
+        <f t="shared" si="3"/>
+        <v>5127641.8559892783</v>
       </c>
       <c r="X196" s="16"/>
       <c r="Y196" s="17"/>
@@ -16616,8 +16616,8 @@
         <v>1</v>
       </c>
       <c r="W197" s="22">
-        <f t="shared" si="2"/>
-        <v>7368317.2286517071</v>
+        <f t="shared" si="3"/>
+        <v>1473663.4457303414</v>
       </c>
       <c r="X197" s="16"/>
       <c r="Y197" s="17"/>
@@ -16692,8 +16692,8 @@
         <v>1</v>
       </c>
       <c r="W198" s="22">
-        <f t="shared" si="2"/>
-        <v>40891.920201838446</v>
+        <f t="shared" si="3"/>
+        <v>8178.3840403676895</v>
       </c>
       <c r="X198" s="16"/>
       <c r="Y198" s="17"/>
@@ -16768,8 +16768,8 @@
         <v>1</v>
       </c>
       <c r="W199" s="22">
-        <f t="shared" si="2"/>
-        <v>3031531.520569569</v>
+        <f t="shared" si="3"/>
+        <v>606306.30411391379</v>
       </c>
       <c r="X199" s="16"/>
       <c r="Y199" s="17"/>
@@ -16785,6 +16785,8014 @@
         <v>98</v>
       </c>
       <c r="AE199" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A200" s="10"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="12" t="str">
+        <f>C70&amp;"-B"</f>
+        <v>CC NG 01-B</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F200" s="13">
+        <v>0</v>
+      </c>
+      <c r="G200" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="H200" s="14">
+        <v>12.45</v>
+      </c>
+      <c r="I200" s="14">
+        <v>16.8</v>
+      </c>
+      <c r="J200" s="14">
+        <v>16.8</v>
+      </c>
+      <c r="K200" s="13">
+        <v>8</v>
+      </c>
+      <c r="L200" s="13">
+        <v>6</v>
+      </c>
+      <c r="M200" s="14"/>
+      <c r="N200" s="14"/>
+      <c r="O200" s="14"/>
+      <c r="P200" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q200" s="15">
+        <v>0.52627841373471795</v>
+      </c>
+      <c r="R200" s="15">
+        <v>92.819682457599995</v>
+      </c>
+      <c r="S200" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T200" s="15">
+        <v>188.58660726897901</v>
+      </c>
+      <c r="U200" s="15"/>
+      <c r="V200" s="13">
+        <v>1</v>
+      </c>
+      <c r="W200" s="22">
+        <f t="shared" ref="W200:W263" si="4">(G200-H200)/P200*Q200*5000</f>
+        <v>3569555.4607902062</v>
+      </c>
+      <c r="X200" s="16"/>
+      <c r="Y200" s="17"/>
+      <c r="Z200" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA200" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB200" s="18"/>
+      <c r="AC200" s="18"/>
+      <c r="AD200" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE200" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A201" s="10"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="12" t="str">
+        <f t="shared" ref="C201:C264" si="5">C71&amp;"-B"</f>
+        <v>CC NG 03-B</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F201" s="13">
+        <v>0</v>
+      </c>
+      <c r="G201" s="14">
+        <v>126.98</v>
+      </c>
+      <c r="H201" s="14">
+        <v>20</v>
+      </c>
+      <c r="I201" s="14">
+        <v>64.2</v>
+      </c>
+      <c r="J201" s="14">
+        <v>63.6</v>
+      </c>
+      <c r="K201" s="13">
+        <v>8</v>
+      </c>
+      <c r="L201" s="13">
+        <v>4</v>
+      </c>
+      <c r="M201" s="14"/>
+      <c r="N201" s="14"/>
+      <c r="O201" s="14"/>
+      <c r="P201" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q201" s="15">
+        <v>0.66331043842798998</v>
+      </c>
+      <c r="R201" s="15">
+        <v>239.51802900480001</v>
+      </c>
+      <c r="S201" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T201" s="15">
+        <v>577.02930869636805</v>
+      </c>
+      <c r="U201" s="15"/>
+      <c r="V201" s="13">
+        <v>1</v>
+      </c>
+      <c r="W201" s="22">
+        <f t="shared" si="4"/>
+        <v>16568067.897477001</v>
+      </c>
+      <c r="X201" s="16"/>
+      <c r="Y201" s="17"/>
+      <c r="Z201" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA201" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB201" s="18"/>
+      <c r="AC201" s="18"/>
+      <c r="AD201" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE201" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A202" s="10"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 04-B</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F202" s="13">
+        <v>0</v>
+      </c>
+      <c r="G202" s="14">
+        <v>320</v>
+      </c>
+      <c r="H202" s="14">
+        <v>160</v>
+      </c>
+      <c r="I202" s="14">
+        <v>150</v>
+      </c>
+      <c r="J202" s="14">
+        <v>150</v>
+      </c>
+      <c r="K202" s="13">
+        <v>8</v>
+      </c>
+      <c r="L202" s="13">
+        <v>4</v>
+      </c>
+      <c r="M202" s="14"/>
+      <c r="N202" s="14"/>
+      <c r="O202" s="14"/>
+      <c r="P202" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q202" s="15">
+        <v>0.52860659627773199</v>
+      </c>
+      <c r="R202" s="15">
+        <v>382.53324085759999</v>
+      </c>
+      <c r="S202" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T202" s="15">
+        <v>1454.1609999544701</v>
+      </c>
+      <c r="U202" s="15"/>
+      <c r="V202" s="13">
+        <v>1</v>
+      </c>
+      <c r="W202" s="22">
+        <f t="shared" si="4"/>
+        <v>19747176.195169356</v>
+      </c>
+      <c r="X202" s="16"/>
+      <c r="Y202" s="17"/>
+      <c r="Z202" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA202" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB202" s="18"/>
+      <c r="AC202" s="18"/>
+      <c r="AD202" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE202" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A203" s="10"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 05-B</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F203" s="13">
+        <v>0</v>
+      </c>
+      <c r="G203" s="14">
+        <v>100</v>
+      </c>
+      <c r="H203" s="14">
+        <v>30</v>
+      </c>
+      <c r="I203" s="14">
+        <v>43.8</v>
+      </c>
+      <c r="J203" s="14">
+        <v>43.8</v>
+      </c>
+      <c r="K203" s="13">
+        <v>12</v>
+      </c>
+      <c r="L203" s="13">
+        <v>8</v>
+      </c>
+      <c r="M203" s="14"/>
+      <c r="N203" s="14"/>
+      <c r="O203" s="14"/>
+      <c r="P203" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q203" s="15">
+        <v>0.63595964645784397</v>
+      </c>
+      <c r="R203" s="15">
+        <v>188.56067381759999</v>
+      </c>
+      <c r="S203" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T203" s="15">
+        <v>454.42527857258801</v>
+      </c>
+      <c r="U203" s="15"/>
+      <c r="V203" s="13">
+        <v>1</v>
+      </c>
+      <c r="W203" s="22">
+        <f t="shared" si="4"/>
+        <v>10393936.029219182</v>
+      </c>
+      <c r="X203" s="16"/>
+      <c r="Y203" s="17"/>
+      <c r="Z203" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA203" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB203" s="18"/>
+      <c r="AC203" s="18"/>
+      <c r="AD203" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE203" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A204" s="10"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 06-B</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F204" s="13">
+        <v>0</v>
+      </c>
+      <c r="G204" s="14">
+        <v>13.5</v>
+      </c>
+      <c r="H204" s="14">
+        <v>4.05</v>
+      </c>
+      <c r="I204" s="14">
+        <v>13.5</v>
+      </c>
+      <c r="J204" s="14">
+        <v>13.5</v>
+      </c>
+      <c r="K204" s="13">
+        <v>6</v>
+      </c>
+      <c r="L204" s="13">
+        <v>6</v>
+      </c>
+      <c r="M204" s="14"/>
+      <c r="N204" s="14"/>
+      <c r="O204" s="14"/>
+      <c r="P204" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q204" s="15">
+        <v>0.35024119336910597</v>
+      </c>
+      <c r="R204" s="15">
+        <v>11.398085888000001</v>
+      </c>
+      <c r="S204" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T204" s="15">
+        <v>61.347594381968698</v>
+      </c>
+      <c r="U204" s="15"/>
+      <c r="V204" s="13">
+        <v>1</v>
+      </c>
+      <c r="W204" s="22">
+        <f t="shared" si="4"/>
+        <v>772772.16904959676</v>
+      </c>
+      <c r="X204" s="16"/>
+      <c r="Y204" s="17"/>
+      <c r="Z204" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA204" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB204" s="18"/>
+      <c r="AC204" s="18"/>
+      <c r="AD204" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE204" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A205" s="10"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 07-B</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F205" s="13">
+        <v>0</v>
+      </c>
+      <c r="G205" s="14">
+        <v>55.1</v>
+      </c>
+      <c r="H205" s="14">
+        <v>20</v>
+      </c>
+      <c r="I205" s="14">
+        <v>24</v>
+      </c>
+      <c r="J205" s="14">
+        <v>23.4</v>
+      </c>
+      <c r="K205" s="13">
+        <v>8</v>
+      </c>
+      <c r="L205" s="13">
+        <v>4</v>
+      </c>
+      <c r="M205" s="14"/>
+      <c r="N205" s="14"/>
+      <c r="O205" s="14"/>
+      <c r="P205" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q205" s="15">
+        <v>0.52627841373471795</v>
+      </c>
+      <c r="R205" s="15">
+        <v>148.18390684159999</v>
+      </c>
+      <c r="S205" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T205" s="15">
+        <v>250.38836701887399</v>
+      </c>
+      <c r="U205" s="15"/>
+      <c r="V205" s="13">
+        <v>1</v>
+      </c>
+      <c r="W205" s="22">
+        <f t="shared" si="4"/>
+        <v>4312956.8562387684</v>
+      </c>
+      <c r="X205" s="16"/>
+      <c r="Y205" s="17"/>
+      <c r="Z205" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA205" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB205" s="18"/>
+      <c r="AC205" s="18"/>
+      <c r="AD205" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE205" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A206" s="10"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 08-B</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F206" s="13">
+        <v>0</v>
+      </c>
+      <c r="G206" s="14">
+        <v>14.3</v>
+      </c>
+      <c r="H206" s="14">
+        <v>4.29</v>
+      </c>
+      <c r="I206" s="14">
+        <v>14.3</v>
+      </c>
+      <c r="J206" s="14">
+        <v>14.3</v>
+      </c>
+      <c r="K206" s="13">
+        <v>6</v>
+      </c>
+      <c r="L206" s="13">
+        <v>6</v>
+      </c>
+      <c r="M206" s="14"/>
+      <c r="N206" s="14"/>
+      <c r="O206" s="14"/>
+      <c r="P206" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q206" s="15">
+        <v>0.47646242760320401</v>
+      </c>
+      <c r="R206" s="15">
+        <v>18.9665321216</v>
+      </c>
+      <c r="S206" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T206" s="15">
+        <v>64.982545158236206</v>
+      </c>
+      <c r="U206" s="15"/>
+      <c r="V206" s="13">
+        <v>1</v>
+      </c>
+      <c r="W206" s="22">
+        <f t="shared" si="4"/>
+        <v>1113563.9862052647</v>
+      </c>
+      <c r="X206" s="16"/>
+      <c r="Y206" s="17"/>
+      <c r="Z206" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA206" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB206" s="18"/>
+      <c r="AC206" s="18"/>
+      <c r="AD206" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE206" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A207" s="10"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 09-B</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E207" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F207" s="13">
+        <v>0</v>
+      </c>
+      <c r="G207" s="14">
+        <v>33</v>
+      </c>
+      <c r="H207" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="I207" s="14">
+        <v>33</v>
+      </c>
+      <c r="J207" s="14">
+        <v>33</v>
+      </c>
+      <c r="K207" s="13">
+        <v>6</v>
+      </c>
+      <c r="L207" s="13">
+        <v>6</v>
+      </c>
+      <c r="M207" s="14"/>
+      <c r="N207" s="14"/>
+      <c r="O207" s="14"/>
+      <c r="P207" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q207" s="15">
+        <v>0.47646242760320401</v>
+      </c>
+      <c r="R207" s="15">
+        <v>43.766891750399999</v>
+      </c>
+      <c r="S207" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T207" s="15">
+        <v>149.960303946187</v>
+      </c>
+      <c r="U207" s="15"/>
+      <c r="V207" s="13">
+        <v>1</v>
+      </c>
+      <c r="W207" s="22">
+        <f t="shared" si="4"/>
+        <v>2569763.0450890721</v>
+      </c>
+      <c r="X207" s="16"/>
+      <c r="Y207" s="17"/>
+      <c r="Z207" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA207" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB207" s="18"/>
+      <c r="AC207" s="18"/>
+      <c r="AD207" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE207" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A208" s="10"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 10-B</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F208" s="13">
+        <v>0</v>
+      </c>
+      <c r="G208" s="14">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="H208" s="14">
+        <v>21.45299911</v>
+      </c>
+      <c r="I208" s="14">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="J208" s="14">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="K208" s="13">
+        <v>8</v>
+      </c>
+      <c r="L208" s="13">
+        <v>4</v>
+      </c>
+      <c r="M208" s="14"/>
+      <c r="N208" s="14"/>
+      <c r="O208" s="14"/>
+      <c r="P208" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q208" s="15">
+        <v>0.39227981072063101</v>
+      </c>
+      <c r="R208" s="15">
+        <v>60.5754058112</v>
+      </c>
+      <c r="S208" s="15">
+        <v>1.0813020470000001</v>
+      </c>
+      <c r="T208" s="15">
+        <v>324.95955246531901</v>
+      </c>
+      <c r="U208" s="15"/>
+      <c r="V208" s="13">
+        <v>1</v>
+      </c>
+      <c r="W208" s="22">
+        <f t="shared" si="4"/>
+        <v>4584724.2836992284</v>
+      </c>
+      <c r="X208" s="16"/>
+      <c r="Y208" s="17"/>
+      <c r="Z208" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA208" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB208" s="18"/>
+      <c r="AC208" s="18"/>
+      <c r="AD208" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE208" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A209" s="10"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 11-B</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F209" s="13">
+        <v>0</v>
+      </c>
+      <c r="G209" s="14">
+        <v>596.4</v>
+      </c>
+      <c r="H209" s="14">
+        <v>328.02</v>
+      </c>
+      <c r="I209" s="14">
+        <v>150</v>
+      </c>
+      <c r="J209" s="14">
+        <v>150</v>
+      </c>
+      <c r="K209" s="13">
+        <v>8</v>
+      </c>
+      <c r="L209" s="13">
+        <v>4</v>
+      </c>
+      <c r="M209" s="14"/>
+      <c r="N209" s="14"/>
+      <c r="O209" s="14"/>
+      <c r="P209" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q209" s="15">
+        <v>0.54239370902136397</v>
+      </c>
+      <c r="R209" s="15">
+        <v>764.83500387840002</v>
+      </c>
+      <c r="S209" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T209" s="15">
+        <v>2710.1924938039901</v>
+      </c>
+      <c r="U209" s="15"/>
+      <c r="V209" s="13">
+        <v>1</v>
+      </c>
+      <c r="W209" s="22">
+        <f t="shared" si="4"/>
+        <v>33987344.420206606</v>
+      </c>
+      <c r="X209" s="16"/>
+      <c r="Y209" s="17"/>
+      <c r="Z209" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA209" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB209" s="18"/>
+      <c r="AC209" s="18"/>
+      <c r="AD209" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE209" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A210" s="10"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 12-B</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F210" s="13">
+        <v>0</v>
+      </c>
+      <c r="G210" s="14">
+        <v>150</v>
+      </c>
+      <c r="H210" s="14">
+        <v>60</v>
+      </c>
+      <c r="I210" s="14">
+        <v>150</v>
+      </c>
+      <c r="J210" s="14">
+        <v>150</v>
+      </c>
+      <c r="K210" s="13">
+        <v>8</v>
+      </c>
+      <c r="L210" s="13">
+        <v>4</v>
+      </c>
+      <c r="M210" s="14"/>
+      <c r="N210" s="14"/>
+      <c r="O210" s="14"/>
+      <c r="P210" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q210" s="15">
+        <v>0.36037958628792099</v>
+      </c>
+      <c r="R210" s="15">
+        <v>227.60131555839999</v>
+      </c>
+      <c r="S210" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T210" s="15">
+        <v>681.63764655340503</v>
+      </c>
+      <c r="U210" s="15"/>
+      <c r="V210" s="13">
+        <v>1</v>
+      </c>
+      <c r="W210" s="22">
+        <f t="shared" si="4"/>
+        <v>7572776.3731968608</v>
+      </c>
+      <c r="X210" s="16"/>
+      <c r="Y210" s="17"/>
+      <c r="Z210" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA210" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB210" s="18"/>
+      <c r="AC210" s="18"/>
+      <c r="AD210" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE210" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A211" s="10"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 13-B</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F211" s="13">
+        <v>0</v>
+      </c>
+      <c r="G211" s="14">
+        <v>57.3</v>
+      </c>
+      <c r="H211" s="14">
+        <v>20</v>
+      </c>
+      <c r="I211" s="14">
+        <v>24</v>
+      </c>
+      <c r="J211" s="14">
+        <v>24.6</v>
+      </c>
+      <c r="K211" s="13">
+        <v>8</v>
+      </c>
+      <c r="L211" s="13">
+        <v>6</v>
+      </c>
+      <c r="M211" s="14"/>
+      <c r="N211" s="14"/>
+      <c r="O211" s="14"/>
+      <c r="P211" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q211" s="15">
+        <v>0.52627841373471795</v>
+      </c>
+      <c r="R211" s="15">
+        <v>128.15667880960001</v>
+      </c>
+      <c r="S211" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T211" s="15">
+        <v>260.38543122277798</v>
+      </c>
+      <c r="U211" s="15"/>
+      <c r="V211" s="13">
+        <v>1</v>
+      </c>
+      <c r="W211" s="22">
+        <f t="shared" si="4"/>
+        <v>4583284.6364018824</v>
+      </c>
+      <c r="X211" s="16"/>
+      <c r="Y211" s="17"/>
+      <c r="Z211" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA211" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB211" s="18"/>
+      <c r="AC211" s="18"/>
+      <c r="AD211" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE211" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A212" s="10"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 14-B</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F212" s="13">
+        <v>0</v>
+      </c>
+      <c r="G212" s="14">
+        <v>164.75</v>
+      </c>
+      <c r="H212" s="14">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="I212" s="14">
+        <v>78</v>
+      </c>
+      <c r="J212" s="14">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="K212" s="13">
+        <v>8</v>
+      </c>
+      <c r="L212" s="13">
+        <v>4</v>
+      </c>
+      <c r="M212" s="14"/>
+      <c r="N212" s="14"/>
+      <c r="O212" s="14"/>
+      <c r="P212" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q212" s="15">
+        <v>0.41605596274946</v>
+      </c>
+      <c r="R212" s="15">
+        <v>200.316231808</v>
+      </c>
+      <c r="S212" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T212" s="15">
+        <v>748.665835005644</v>
+      </c>
+      <c r="U212" s="15"/>
+      <c r="V212" s="13">
+        <v>1</v>
+      </c>
+      <c r="W212" s="22">
+        <f t="shared" si="4"/>
+        <v>9602423.6892485768</v>
+      </c>
+      <c r="X212" s="16"/>
+      <c r="Y212" s="17"/>
+      <c r="Z212" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA212" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB212" s="18"/>
+      <c r="AC212" s="18"/>
+      <c r="AD212" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE212" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A213" s="10"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 15-B</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F213" s="13">
+        <v>0</v>
+      </c>
+      <c r="G213" s="14">
+        <v>27</v>
+      </c>
+      <c r="H213" s="14">
+        <v>8.1</v>
+      </c>
+      <c r="I213" s="14">
+        <v>27</v>
+      </c>
+      <c r="J213" s="14">
+        <v>27</v>
+      </c>
+      <c r="K213" s="13">
+        <v>2</v>
+      </c>
+      <c r="L213" s="13">
+        <v>2</v>
+      </c>
+      <c r="M213" s="14"/>
+      <c r="N213" s="14"/>
+      <c r="O213" s="14"/>
+      <c r="P213" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q213" s="15">
+        <v>0.302679573437797</v>
+      </c>
+      <c r="R213" s="15">
+        <v>36.749304166400002</v>
+      </c>
+      <c r="S213" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T213" s="15">
+        <v>122.69464615298401</v>
+      </c>
+      <c r="U213" s="15"/>
+      <c r="V213" s="13">
+        <v>1</v>
+      </c>
+      <c r="W213" s="22">
+        <f t="shared" si="4"/>
+        <v>1335664.421666313</v>
+      </c>
+      <c r="X213" s="16"/>
+      <c r="Y213" s="17"/>
+      <c r="Z213" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA213" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB213" s="18"/>
+      <c r="AC213" s="18"/>
+      <c r="AD213" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE213" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A214" s="10"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 16-B</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F214" s="13">
+        <v>0</v>
+      </c>
+      <c r="G214" s="14">
+        <v>943.5</v>
+      </c>
+      <c r="H214" s="14">
+        <v>503.86</v>
+      </c>
+      <c r="I214" s="14">
+        <v>399</v>
+      </c>
+      <c r="J214" s="14">
+        <v>399</v>
+      </c>
+      <c r="K214" s="13">
+        <v>8</v>
+      </c>
+      <c r="L214" s="13">
+        <v>4</v>
+      </c>
+      <c r="M214" s="14"/>
+      <c r="N214" s="14"/>
+      <c r="O214" s="14"/>
+      <c r="P214" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q214" s="15">
+        <v>0.51544120092464696</v>
+      </c>
+      <c r="R214" s="15">
+        <v>1125.4921241088</v>
+      </c>
+      <c r="S214" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T214" s="15">
+        <v>4287.5023052793704</v>
+      </c>
+      <c r="U214" s="15"/>
+      <c r="V214" s="13">
+        <v>1</v>
+      </c>
+      <c r="W214" s="22">
+        <f t="shared" si="4"/>
+        <v>52908904.540656477</v>
+      </c>
+      <c r="X214" s="16"/>
+      <c r="Y214" s="17"/>
+      <c r="Z214" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA214" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB214" s="18"/>
+      <c r="AC214" s="18"/>
+      <c r="AD214" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE214" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A215" s="10"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 17-B</v>
+      </c>
+      <c r="D215" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F215" s="13">
+        <v>0</v>
+      </c>
+      <c r="G215" s="14">
+        <v>154.4</v>
+      </c>
+      <c r="H215" s="14">
+        <v>84.92</v>
+      </c>
+      <c r="I215" s="14">
+        <v>150</v>
+      </c>
+      <c r="J215" s="14">
+        <v>150</v>
+      </c>
+      <c r="K215" s="13">
+        <v>8</v>
+      </c>
+      <c r="L215" s="13">
+        <v>4</v>
+      </c>
+      <c r="M215" s="14"/>
+      <c r="N215" s="14"/>
+      <c r="O215" s="14"/>
+      <c r="P215" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q215" s="15">
+        <v>0.50265539195470499</v>
+      </c>
+      <c r="R215" s="15">
+        <v>213.6599035648</v>
+      </c>
+      <c r="S215" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T215" s="15">
+        <v>701.63286018311999</v>
+      </c>
+      <c r="U215" s="15"/>
+      <c r="V215" s="13">
+        <v>1</v>
+      </c>
+      <c r="W215" s="22">
+        <f t="shared" si="4"/>
+        <v>8154223.2138708802</v>
+      </c>
+      <c r="X215" s="16"/>
+      <c r="Y215" s="17"/>
+      <c r="Z215" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA215" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB215" s="18"/>
+      <c r="AC215" s="18"/>
+      <c r="AD215" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE215" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A216" s="10"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 18-B</v>
+      </c>
+      <c r="D216" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F216" s="13">
+        <v>0</v>
+      </c>
+      <c r="G216" s="14">
+        <v>619</v>
+      </c>
+      <c r="H216" s="14">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="I216" s="14">
+        <v>265.2</v>
+      </c>
+      <c r="J216" s="14">
+        <v>265.2</v>
+      </c>
+      <c r="K216" s="13">
+        <v>8</v>
+      </c>
+      <c r="L216" s="13">
+        <v>4</v>
+      </c>
+      <c r="M216" s="14"/>
+      <c r="N216" s="14"/>
+      <c r="O216" s="14"/>
+      <c r="P216" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q216" s="15">
+        <v>0.51593537638347398</v>
+      </c>
+      <c r="R216" s="15">
+        <v>691.41550822399995</v>
+      </c>
+      <c r="S216" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T216" s="15">
+        <v>2812.8924689382102</v>
+      </c>
+      <c r="U216" s="15"/>
+      <c r="V216" s="13">
+        <v>1</v>
+      </c>
+      <c r="W216" s="22">
+        <f t="shared" si="4"/>
+        <v>37656219.893952511</v>
+      </c>
+      <c r="X216" s="16"/>
+      <c r="Y216" s="17"/>
+      <c r="Z216" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA216" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB216" s="18"/>
+      <c r="AC216" s="18"/>
+      <c r="AD216" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE216" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A217" s="10"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 19-B</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F217" s="13">
+        <v>0</v>
+      </c>
+      <c r="G217" s="14">
+        <v>140</v>
+      </c>
+      <c r="H217" s="14">
+        <v>70.48</v>
+      </c>
+      <c r="I217" s="14">
+        <v>52.2</v>
+      </c>
+      <c r="J217" s="14">
+        <v>52.8</v>
+      </c>
+      <c r="K217" s="13">
+        <v>8</v>
+      </c>
+      <c r="L217" s="13">
+        <v>4</v>
+      </c>
+      <c r="M217" s="14"/>
+      <c r="N217" s="14"/>
+      <c r="O217" s="14"/>
+      <c r="P217" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q217" s="15">
+        <v>0.57286066380387701</v>
+      </c>
+      <c r="R217" s="15">
+        <v>145.8925692672</v>
+      </c>
+      <c r="S217" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T217" s="15">
+        <v>636.19560704600406</v>
+      </c>
+      <c r="U217" s="15"/>
+      <c r="V217" s="13">
+        <v>1</v>
+      </c>
+      <c r="W217" s="22">
+        <f t="shared" si="4"/>
+        <v>9298463.821613254</v>
+      </c>
+      <c r="X217" s="16"/>
+      <c r="Y217" s="17"/>
+      <c r="Z217" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA217" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB217" s="18"/>
+      <c r="AC217" s="18"/>
+      <c r="AD217" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE217" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A218" s="10"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 20-B</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F218" s="13">
+        <v>0</v>
+      </c>
+      <c r="G218" s="14">
+        <v>25.8</v>
+      </c>
+      <c r="H218" s="14">
+        <v>7.74</v>
+      </c>
+      <c r="I218" s="14">
+        <v>25.8</v>
+      </c>
+      <c r="J218" s="14">
+        <v>25.8</v>
+      </c>
+      <c r="K218" s="13">
+        <v>2</v>
+      </c>
+      <c r="L218" s="13">
+        <v>2</v>
+      </c>
+      <c r="M218" s="14"/>
+      <c r="N218" s="14"/>
+      <c r="O218" s="14"/>
+      <c r="P218" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q218" s="15">
+        <v>0.52627841373471795</v>
+      </c>
+      <c r="R218" s="15">
+        <v>114.5405078272</v>
+      </c>
+      <c r="S218" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T218" s="15">
+        <v>117.241948683106</v>
+      </c>
+      <c r="U218" s="15"/>
+      <c r="V218" s="13">
+        <v>1</v>
+      </c>
+      <c r="W218" s="22">
+        <f t="shared" si="4"/>
+        <v>2219145.3226117427</v>
+      </c>
+      <c r="X218" s="16"/>
+      <c r="Y218" s="17"/>
+      <c r="Z218" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA218" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB218" s="18"/>
+      <c r="AC218" s="18"/>
+      <c r="AD218" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE218" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A219" s="10"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 21-B</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F219" s="13">
+        <v>0</v>
+      </c>
+      <c r="G219" s="14">
+        <v>315</v>
+      </c>
+      <c r="H219" s="14">
+        <v>141.75</v>
+      </c>
+      <c r="I219" s="14">
+        <v>150</v>
+      </c>
+      <c r="J219" s="14">
+        <v>150</v>
+      </c>
+      <c r="K219" s="13">
+        <v>8</v>
+      </c>
+      <c r="L219" s="13">
+        <v>4</v>
+      </c>
+      <c r="M219" s="14"/>
+      <c r="N219" s="14"/>
+      <c r="O219" s="14"/>
+      <c r="P219" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q219" s="15">
+        <v>0.423037455835229</v>
+      </c>
+      <c r="R219" s="15">
+        <v>243.9483389952</v>
+      </c>
+      <c r="S219" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T219" s="15">
+        <v>1431.4397088952901</v>
+      </c>
+      <c r="U219" s="15"/>
+      <c r="V219" s="13">
+        <v>1</v>
+      </c>
+      <c r="W219" s="22">
+        <f t="shared" si="4"/>
+        <v>17112147.113505602</v>
+      </c>
+      <c r="X219" s="16"/>
+      <c r="Y219" s="17"/>
+      <c r="Z219" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA219" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB219" s="18"/>
+      <c r="AC219" s="18"/>
+      <c r="AD219" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE219" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A220" s="10"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 22-B</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F220" s="13">
+        <v>0</v>
+      </c>
+      <c r="G220" s="14">
+        <v>677.8</v>
+      </c>
+      <c r="H220" s="14">
+        <v>385.59</v>
+      </c>
+      <c r="I220" s="14">
+        <v>478.2</v>
+      </c>
+      <c r="J220" s="14">
+        <v>478.2</v>
+      </c>
+      <c r="K220" s="13">
+        <v>8</v>
+      </c>
+      <c r="L220" s="13">
+        <v>4</v>
+      </c>
+      <c r="M220" s="14"/>
+      <c r="N220" s="14"/>
+      <c r="O220" s="14"/>
+      <c r="P220" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q220" s="15">
+        <v>0.58030124958998297</v>
+      </c>
+      <c r="R220" s="15">
+        <v>782.17533094400005</v>
+      </c>
+      <c r="S220" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T220" s="15">
+        <v>3080.0947215675001</v>
+      </c>
+      <c r="U220" s="15"/>
+      <c r="V220" s="13">
+        <v>1</v>
+      </c>
+      <c r="W220" s="22">
+        <f t="shared" si="4"/>
+        <v>39591414.689315289</v>
+      </c>
+      <c r="X220" s="16"/>
+      <c r="Y220" s="17"/>
+      <c r="Z220" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA220" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB220" s="18"/>
+      <c r="AC220" s="18"/>
+      <c r="AD220" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE220" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A221" s="10"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 23-B</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F221" s="13">
+        <v>0</v>
+      </c>
+      <c r="G221" s="14">
+        <v>636</v>
+      </c>
+      <c r="H221" s="14">
+        <v>326.08999999999997</v>
+      </c>
+      <c r="I221" s="14">
+        <v>340.8</v>
+      </c>
+      <c r="J221" s="14">
+        <v>341.4</v>
+      </c>
+      <c r="K221" s="13">
+        <v>8</v>
+      </c>
+      <c r="L221" s="13">
+        <v>4</v>
+      </c>
+      <c r="M221" s="14"/>
+      <c r="N221" s="14"/>
+      <c r="O221" s="14"/>
+      <c r="P221" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q221" s="15">
+        <v>0.50977822269315698</v>
+      </c>
+      <c r="R221" s="15">
+        <v>737.10161495039995</v>
+      </c>
+      <c r="S221" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T221" s="15">
+        <v>2890.1445329728399</v>
+      </c>
+      <c r="U221" s="15"/>
+      <c r="V221" s="13">
+        <v>1</v>
+      </c>
+      <c r="W221" s="22">
+        <f t="shared" si="4"/>
+        <v>36886658.005312957</v>
+      </c>
+      <c r="X221" s="16"/>
+      <c r="Y221" s="17"/>
+      <c r="Z221" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA221" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB221" s="18"/>
+      <c r="AC221" s="18"/>
+      <c r="AD221" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE221" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A222" s="10"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 24-B</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F222" s="13">
+        <v>0</v>
+      </c>
+      <c r="G222" s="14">
+        <v>672.3</v>
+      </c>
+      <c r="H222" s="14">
+        <v>302.54000000000002</v>
+      </c>
+      <c r="I222" s="14">
+        <v>150</v>
+      </c>
+      <c r="J222" s="14">
+        <v>150</v>
+      </c>
+      <c r="K222" s="13">
+        <v>8</v>
+      </c>
+      <c r="L222" s="13">
+        <v>4</v>
+      </c>
+      <c r="M222" s="14"/>
+      <c r="N222" s="14"/>
+      <c r="O222" s="14"/>
+      <c r="P222" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q222" s="15">
+        <v>0.53943551955692104</v>
+      </c>
+      <c r="R222" s="15">
+        <v>708.79099647999999</v>
+      </c>
+      <c r="S222" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T222" s="15">
+        <v>3055.10097583584</v>
+      </c>
+      <c r="U222" s="15"/>
+      <c r="V222" s="13">
+        <v>1</v>
+      </c>
+      <c r="W222" s="22">
+        <f t="shared" si="4"/>
+        <v>46570608.010831863</v>
+      </c>
+      <c r="X222" s="16"/>
+      <c r="Y222" s="17"/>
+      <c r="Z222" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA222" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB222" s="18"/>
+      <c r="AC222" s="18"/>
+      <c r="AD222" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE222" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A223" s="10"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 25-B</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F223" s="13">
+        <v>0</v>
+      </c>
+      <c r="G223" s="14">
+        <v>32.49</v>
+      </c>
+      <c r="H223" s="14">
+        <v>9.7469999999999999</v>
+      </c>
+      <c r="I223" s="14">
+        <v>13.2</v>
+      </c>
+      <c r="J223" s="14">
+        <v>13.2</v>
+      </c>
+      <c r="K223" s="13">
+        <v>8</v>
+      </c>
+      <c r="L223" s="13">
+        <v>4</v>
+      </c>
+      <c r="M223" s="14"/>
+      <c r="N223" s="14"/>
+      <c r="O223" s="14"/>
+      <c r="P223" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q223" s="15">
+        <v>0.52627841373471795</v>
+      </c>
+      <c r="R223" s="15">
+        <v>72.66646016</v>
+      </c>
+      <c r="S223" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T223" s="15">
+        <v>147.64281256457201</v>
+      </c>
+      <c r="U223" s="15"/>
+      <c r="V223" s="13">
+        <v>1</v>
+      </c>
+      <c r="W223" s="22">
+        <f t="shared" si="4"/>
+        <v>2794574.8655680432</v>
+      </c>
+      <c r="X223" s="16"/>
+      <c r="Y223" s="17"/>
+      <c r="Z223" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA223" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB223" s="18"/>
+      <c r="AC223" s="18"/>
+      <c r="AD223" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE223" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A224" s="10"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 26-B</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F224" s="13">
+        <v>0</v>
+      </c>
+      <c r="G224" s="14">
+        <v>655</v>
+      </c>
+      <c r="H224" s="14">
+        <v>262</v>
+      </c>
+      <c r="I224" s="14">
+        <v>180</v>
+      </c>
+      <c r="J224" s="14">
+        <v>180.6</v>
+      </c>
+      <c r="K224" s="13">
+        <v>8</v>
+      </c>
+      <c r="L224" s="13">
+        <v>4</v>
+      </c>
+      <c r="M224" s="14"/>
+      <c r="N224" s="14"/>
+      <c r="O224" s="14"/>
+      <c r="P224" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q224" s="15">
+        <v>0.47430842037841497</v>
+      </c>
+      <c r="R224" s="15">
+        <v>552.73391308800001</v>
+      </c>
+      <c r="S224" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T224" s="15">
+        <v>2976.4858730864698</v>
+      </c>
+      <c r="U224" s="15"/>
+      <c r="V224" s="13">
+        <v>1</v>
+      </c>
+      <c r="W224" s="22">
+        <f t="shared" si="4"/>
+        <v>43521697.438953876</v>
+      </c>
+      <c r="X224" s="16"/>
+      <c r="Y224" s="17"/>
+      <c r="Z224" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA224" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB224" s="18"/>
+      <c r="AC224" s="18"/>
+      <c r="AD224" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE224" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A225" s="10"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 27-B</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E225" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F225" s="13">
+        <v>0</v>
+      </c>
+      <c r="G225" s="14">
+        <v>34.5</v>
+      </c>
+      <c r="H225" s="14">
+        <v>10.35</v>
+      </c>
+      <c r="I225" s="14">
+        <v>15</v>
+      </c>
+      <c r="J225" s="14">
+        <v>15</v>
+      </c>
+      <c r="K225" s="13">
+        <v>8</v>
+      </c>
+      <c r="L225" s="13">
+        <v>4</v>
+      </c>
+      <c r="M225" s="14"/>
+      <c r="N225" s="14"/>
+      <c r="O225" s="14"/>
+      <c r="P225" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q225" s="15">
+        <v>0.52627841373471795</v>
+      </c>
+      <c r="R225" s="15">
+        <v>77.161232332799997</v>
+      </c>
+      <c r="S225" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T225" s="15">
+        <v>156.77658274174999</v>
+      </c>
+      <c r="U225" s="15"/>
+      <c r="V225" s="13">
+        <v>1</v>
+      </c>
+      <c r="W225" s="22">
+        <f t="shared" si="4"/>
+        <v>2967461.7686087252</v>
+      </c>
+      <c r="X225" s="16"/>
+      <c r="Y225" s="17"/>
+      <c r="Z225" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA225" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB225" s="18"/>
+      <c r="AC225" s="18"/>
+      <c r="AD225" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE225" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A226" s="10"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 28-B</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E226" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F226" s="13">
+        <v>0</v>
+      </c>
+      <c r="G226" s="14">
+        <v>181.5</v>
+      </c>
+      <c r="H226" s="14">
+        <v>99.824996949999999</v>
+      </c>
+      <c r="I226" s="14">
+        <v>150</v>
+      </c>
+      <c r="J226" s="14">
+        <v>150</v>
+      </c>
+      <c r="K226" s="13">
+        <v>8</v>
+      </c>
+      <c r="L226" s="13">
+        <v>4</v>
+      </c>
+      <c r="M226" s="14"/>
+      <c r="N226" s="14"/>
+      <c r="O226" s="14"/>
+      <c r="P226" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q226" s="15">
+        <v>0.48801764951607002</v>
+      </c>
+      <c r="R226" s="15">
+        <v>258.51520996403201</v>
+      </c>
+      <c r="S226" s="15">
+        <v>1.0813020470000001</v>
+      </c>
+      <c r="T226" s="15">
+        <v>824.781684184082</v>
+      </c>
+      <c r="U226" s="15"/>
+      <c r="V226" s="13">
+        <v>1</v>
+      </c>
+      <c r="W226" s="22">
+        <f t="shared" si="4"/>
+        <v>9306301.7167380713</v>
+      </c>
+      <c r="X226" s="16"/>
+      <c r="Y226" s="17"/>
+      <c r="Z226" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA226" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB226" s="18"/>
+      <c r="AC226" s="18"/>
+      <c r="AD226" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE226" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A227" s="10"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 29-B</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E227" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F227" s="13">
+        <v>0</v>
+      </c>
+      <c r="G227" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="H227" s="14">
+        <v>14.97</v>
+      </c>
+      <c r="I227" s="14">
+        <v>25.2</v>
+      </c>
+      <c r="J227" s="14">
+        <v>25.2</v>
+      </c>
+      <c r="K227" s="13">
+        <v>8</v>
+      </c>
+      <c r="L227" s="13">
+        <v>6</v>
+      </c>
+      <c r="M227" s="14"/>
+      <c r="N227" s="14"/>
+      <c r="O227" s="14"/>
+      <c r="P227" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q227" s="15">
+        <v>0.52627841373471795</v>
+      </c>
+      <c r="R227" s="15">
+        <v>111.607478528</v>
+      </c>
+      <c r="S227" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T227" s="15">
+        <v>226.75820261289101</v>
+      </c>
+      <c r="U227" s="15"/>
+      <c r="V227" s="13">
+        <v>1</v>
+      </c>
+      <c r="W227" s="22">
+        <f t="shared" si="4"/>
+        <v>4292067.8914079824</v>
+      </c>
+      <c r="X227" s="16"/>
+      <c r="Y227" s="17"/>
+      <c r="Z227" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA227" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB227" s="18"/>
+      <c r="AC227" s="18"/>
+      <c r="AD227" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE227" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A228" s="10"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 31-B</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E228" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F228" s="13">
+        <v>0</v>
+      </c>
+      <c r="G228" s="14">
+        <v>336.5</v>
+      </c>
+      <c r="H228" s="14">
+        <v>185.07</v>
+      </c>
+      <c r="I228" s="14">
+        <v>150</v>
+      </c>
+      <c r="J228" s="14">
+        <v>150</v>
+      </c>
+      <c r="K228" s="13">
+        <v>8</v>
+      </c>
+      <c r="L228" s="13">
+        <v>4</v>
+      </c>
+      <c r="M228" s="14"/>
+      <c r="N228" s="14"/>
+      <c r="O228" s="14"/>
+      <c r="P228" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q228" s="15">
+        <v>0.54314724119442104</v>
+      </c>
+      <c r="R228" s="15">
+        <v>430.9355495424</v>
+      </c>
+      <c r="S228" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T228" s="15">
+        <v>1529.14115192757</v>
+      </c>
+      <c r="U228" s="15"/>
+      <c r="V228" s="13">
+        <v>1</v>
+      </c>
+      <c r="W228" s="22">
+        <f t="shared" si="4"/>
+        <v>19203568.576725394</v>
+      </c>
+      <c r="X228" s="16"/>
+      <c r="Y228" s="17"/>
+      <c r="Z228" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA228" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB228" s="18"/>
+      <c r="AC228" s="18"/>
+      <c r="AD228" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE228" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A229" s="10"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 32-B</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E229" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F229" s="13">
+        <v>0</v>
+      </c>
+      <c r="G229" s="14">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="H229" s="14">
+        <v>11.565</v>
+      </c>
+      <c r="I229" s="14">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="J229" s="14">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="K229" s="13">
+        <v>2</v>
+      </c>
+      <c r="L229" s="13">
+        <v>2</v>
+      </c>
+      <c r="M229" s="14"/>
+      <c r="N229" s="14"/>
+      <c r="O229" s="14"/>
+      <c r="P229" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q229" s="15">
+        <v>0.52627841373471795</v>
+      </c>
+      <c r="R229" s="15">
+        <v>178.88548625920001</v>
+      </c>
+      <c r="S229" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T229" s="15">
+        <v>175.18086105634001</v>
+      </c>
+      <c r="U229" s="15"/>
+      <c r="V229" s="13">
+        <v>1</v>
+      </c>
+      <c r="W229" s="22">
+        <f t="shared" si="4"/>
+        <v>3315815.9762280104</v>
+      </c>
+      <c r="X229" s="16"/>
+      <c r="Y229" s="17"/>
+      <c r="Z229" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA229" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB229" s="18"/>
+      <c r="AC229" s="18"/>
+      <c r="AD229" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE229" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A230" s="10"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 33-B</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E230" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F230" s="13">
+        <v>0</v>
+      </c>
+      <c r="G230" s="14">
+        <v>24.88</v>
+      </c>
+      <c r="H230" s="14">
+        <v>7.4640000000000004</v>
+      </c>
+      <c r="I230" s="14">
+        <v>24.88</v>
+      </c>
+      <c r="J230" s="14">
+        <v>24.88</v>
+      </c>
+      <c r="K230" s="13">
+        <v>8</v>
+      </c>
+      <c r="L230" s="13">
+        <v>8</v>
+      </c>
+      <c r="M230" s="14"/>
+      <c r="N230" s="14"/>
+      <c r="O230" s="14"/>
+      <c r="P230" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q230" s="15">
+        <v>0.35024119336910597</v>
+      </c>
+      <c r="R230" s="15">
+        <v>21.005881164800002</v>
+      </c>
+      <c r="S230" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T230" s="15">
+        <v>113.061131287802</v>
+      </c>
+      <c r="U230" s="15"/>
+      <c r="V230" s="13">
+        <v>1</v>
+      </c>
+      <c r="W230" s="22">
+        <f t="shared" si="4"/>
+        <v>1424190.4863669607</v>
+      </c>
+      <c r="X230" s="16"/>
+      <c r="Y230" s="17"/>
+      <c r="Z230" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA230" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB230" s="18"/>
+      <c r="AC230" s="18"/>
+      <c r="AD230" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE230" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A231" s="10"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 34-B</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F231" s="13">
+        <v>0</v>
+      </c>
+      <c r="G231" s="14">
+        <v>688.3</v>
+      </c>
+      <c r="H231" s="14">
+        <v>338.08</v>
+      </c>
+      <c r="I231" s="14">
+        <v>337.2</v>
+      </c>
+      <c r="J231" s="14">
+        <v>336.6</v>
+      </c>
+      <c r="K231" s="13">
+        <v>8</v>
+      </c>
+      <c r="L231" s="13">
+        <v>4</v>
+      </c>
+      <c r="M231" s="14"/>
+      <c r="N231" s="14"/>
+      <c r="O231" s="14"/>
+      <c r="P231" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q231" s="15">
+        <v>0.52507403679471898</v>
+      </c>
+      <c r="R231" s="15">
+        <v>744.0049286656</v>
+      </c>
+      <c r="S231" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T231" s="15">
+        <v>3127.8092157473902</v>
+      </c>
+      <c r="U231" s="15"/>
+      <c r="V231" s="13">
+        <v>1</v>
+      </c>
+      <c r="W231" s="22">
+        <f t="shared" si="4"/>
+        <v>42935243.313482217</v>
+      </c>
+      <c r="X231" s="16"/>
+      <c r="Y231" s="17"/>
+      <c r="Z231" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA231" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB231" s="18"/>
+      <c r="AC231" s="18"/>
+      <c r="AD231" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE231" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A232" s="10"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 35-B</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E232" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F232" s="13">
+        <v>0</v>
+      </c>
+      <c r="G232" s="14">
+        <v>595</v>
+      </c>
+      <c r="H232" s="14">
+        <v>298.29000000000002</v>
+      </c>
+      <c r="I232" s="14">
+        <v>220.8</v>
+      </c>
+      <c r="J232" s="14">
+        <v>221.4</v>
+      </c>
+      <c r="K232" s="13">
+        <v>8</v>
+      </c>
+      <c r="L232" s="13">
+        <v>4</v>
+      </c>
+      <c r="M232" s="14"/>
+      <c r="N232" s="14"/>
+      <c r="O232" s="14"/>
+      <c r="P232" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q232" s="15">
+        <v>0.51340677036236904</v>
+      </c>
+      <c r="R232" s="15">
+        <v>669.93202088960004</v>
+      </c>
+      <c r="S232" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T232" s="15">
+        <v>2703.8303803763501</v>
+      </c>
+      <c r="U232" s="15"/>
+      <c r="V232" s="13">
+        <v>1</v>
+      </c>
+      <c r="W232" s="22">
+        <f t="shared" si="4"/>
+        <v>35566916.501737602</v>
+      </c>
+      <c r="X232" s="16"/>
+      <c r="Y232" s="17"/>
+      <c r="Z232" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA232" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB232" s="18"/>
+      <c r="AC232" s="18"/>
+      <c r="AD232" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE232" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A233" s="10"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 36-B</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E233" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F233" s="13">
+        <v>0</v>
+      </c>
+      <c r="G233" s="14">
+        <v>668</v>
+      </c>
+      <c r="H233" s="14">
+        <v>367.4</v>
+      </c>
+      <c r="I233" s="14">
+        <v>150</v>
+      </c>
+      <c r="J233" s="14">
+        <v>150</v>
+      </c>
+      <c r="K233" s="13">
+        <v>8</v>
+      </c>
+      <c r="L233" s="13">
+        <v>4</v>
+      </c>
+      <c r="M233" s="14"/>
+      <c r="N233" s="14"/>
+      <c r="O233" s="14"/>
+      <c r="P233" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q233" s="15">
+        <v>0.56268469444668701</v>
+      </c>
+      <c r="R233" s="15">
+        <v>825.76348664320005</v>
+      </c>
+      <c r="S233" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T233" s="15">
+        <v>3035.5610127959499</v>
+      </c>
+      <c r="U233" s="15"/>
+      <c r="V233" s="13">
+        <v>1</v>
+      </c>
+      <c r="W233" s="22">
+        <f t="shared" si="4"/>
+        <v>39491762.693550058</v>
+      </c>
+      <c r="X233" s="16"/>
+      <c r="Y233" s="17"/>
+      <c r="Z233" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA233" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB233" s="18"/>
+      <c r="AC233" s="18"/>
+      <c r="AD233" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE233" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A234" s="10"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 37-B</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F234" s="13">
+        <v>0</v>
+      </c>
+      <c r="G234" s="14">
+        <v>636</v>
+      </c>
+      <c r="H234" s="14">
+        <v>298.19</v>
+      </c>
+      <c r="I234" s="14">
+        <v>400.8</v>
+      </c>
+      <c r="J234" s="14">
+        <v>401.4</v>
+      </c>
+      <c r="K234" s="13">
+        <v>8</v>
+      </c>
+      <c r="L234" s="13">
+        <v>4</v>
+      </c>
+      <c r="M234" s="14"/>
+      <c r="N234" s="14"/>
+      <c r="O234" s="14"/>
+      <c r="P234" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q234" s="15">
+        <v>0.53181853849433303</v>
+      </c>
+      <c r="R234" s="15">
+        <v>656.74950458880005</v>
+      </c>
+      <c r="S234" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T234" s="15">
+        <v>2890.1445329728399</v>
+      </c>
+      <c r="U234" s="15"/>
+      <c r="V234" s="13">
+        <v>1</v>
+      </c>
+      <c r="W234" s="22">
+        <f t="shared" si="4"/>
+        <v>41945793.465230078</v>
+      </c>
+      <c r="X234" s="16"/>
+      <c r="Y234" s="17"/>
+      <c r="Z234" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA234" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB234" s="18"/>
+      <c r="AC234" s="18"/>
+      <c r="AD234" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE234" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A235" s="10"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 38-B</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E235" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F235" s="13">
+        <v>0</v>
+      </c>
+      <c r="G235" s="14">
+        <v>98.2</v>
+      </c>
+      <c r="H235" s="14">
+        <v>42.69</v>
+      </c>
+      <c r="I235" s="14">
+        <v>98.2</v>
+      </c>
+      <c r="J235" s="14">
+        <v>98.2</v>
+      </c>
+      <c r="K235" s="13">
+        <v>8</v>
+      </c>
+      <c r="L235" s="13">
+        <v>4</v>
+      </c>
+      <c r="M235" s="14"/>
+      <c r="N235" s="14"/>
+      <c r="O235" s="14"/>
+      <c r="P235" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q235" s="15">
+        <v>0.503973118062787</v>
+      </c>
+      <c r="R235" s="15">
+        <v>98.345849548800004</v>
+      </c>
+      <c r="S235" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T235" s="15">
+        <v>446.24541845134098</v>
+      </c>
+      <c r="U235" s="15"/>
+      <c r="V235" s="13">
+        <v>1</v>
+      </c>
+      <c r="W235" s="22">
+        <f t="shared" si="4"/>
+        <v>6531772.3417861648</v>
+      </c>
+      <c r="X235" s="16"/>
+      <c r="Y235" s="17"/>
+      <c r="Z235" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA235" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB235" s="18"/>
+      <c r="AC235" s="18"/>
+      <c r="AD235" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE235" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A236" s="10"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 39-B</v>
+      </c>
+      <c r="D236" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F236" s="13">
+        <v>0</v>
+      </c>
+      <c r="G236" s="14">
+        <v>247</v>
+      </c>
+      <c r="H236" s="14">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I236" s="14">
+        <v>121.8</v>
+      </c>
+      <c r="J236" s="14">
+        <v>121.2</v>
+      </c>
+      <c r="K236" s="13">
+        <v>8</v>
+      </c>
+      <c r="L236" s="13">
+        <v>4</v>
+      </c>
+      <c r="M236" s="14"/>
+      <c r="N236" s="14"/>
+      <c r="O236" s="14"/>
+      <c r="P236" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q236" s="15">
+        <v>0.52627841373471795</v>
+      </c>
+      <c r="R236" s="15">
+        <v>624.72938053120004</v>
+      </c>
+      <c r="S236" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T236" s="15">
+        <v>1122.4303675348699</v>
+      </c>
+      <c r="U236" s="15"/>
+      <c r="V236" s="13">
+        <v>1</v>
+      </c>
+      <c r="W236" s="22">
+        <f t="shared" si="4"/>
+        <v>21245305.995546527</v>
+      </c>
+      <c r="X236" s="16"/>
+      <c r="Y236" s="17"/>
+      <c r="Z236" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA236" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB236" s="18"/>
+      <c r="AC236" s="18"/>
+      <c r="AD236" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE236" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A237" s="10"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CC NG 40-B</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F237" s="13">
+        <v>0</v>
+      </c>
+      <c r="G237" s="14">
+        <v>751.1</v>
+      </c>
+      <c r="H237" s="14">
+        <v>412.5</v>
+      </c>
+      <c r="I237" s="14">
+        <v>111</v>
+      </c>
+      <c r="J237" s="14">
+        <v>111.36</v>
+      </c>
+      <c r="K237" s="13">
+        <v>8</v>
+      </c>
+      <c r="L237" s="13">
+        <v>4</v>
+      </c>
+      <c r="M237" s="14"/>
+      <c r="N237" s="14"/>
+      <c r="O237" s="14"/>
+      <c r="P237" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q237" s="15">
+        <v>0.53995159149368499</v>
+      </c>
+      <c r="R237" s="15">
+        <v>284.52435271680002</v>
+      </c>
+      <c r="S237" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="T237" s="15">
+        <v>3408.1898605998799</v>
+      </c>
+      <c r="U237" s="15"/>
+      <c r="V237" s="13">
+        <v>1</v>
+      </c>
+      <c r="W237" s="22">
+        <f t="shared" si="4"/>
+        <v>42686860.976963706</v>
+      </c>
+      <c r="X237" s="16"/>
+      <c r="Y237" s="17"/>
+      <c r="Z237" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA237" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB237" s="18"/>
+      <c r="AC237" s="18"/>
+      <c r="AD237" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE237" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A238" s="10"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 01-B</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F238" s="13">
+        <v>0</v>
+      </c>
+      <c r="G238" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="H238" s="14">
+        <v>11.43</v>
+      </c>
+      <c r="I238" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="J238" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="K238" s="13">
+        <v>2</v>
+      </c>
+      <c r="L238" s="13">
+        <v>2</v>
+      </c>
+      <c r="M238" s="14"/>
+      <c r="N238" s="14"/>
+      <c r="O238" s="14"/>
+      <c r="P238" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q238" s="15">
+        <v>0.35612478370803302</v>
+      </c>
+      <c r="R238" s="15">
+        <v>38.999620352000001</v>
+      </c>
+      <c r="S238" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T238" s="15">
+        <v>46.754072792520198</v>
+      </c>
+      <c r="U238" s="15"/>
+      <c r="V238" s="13">
+        <v>1</v>
+      </c>
+      <c r="W238" s="22">
+        <f t="shared" si="4"/>
+        <v>1161585.1330311613</v>
+      </c>
+      <c r="X238" s="16"/>
+      <c r="Y238" s="17"/>
+      <c r="Z238" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA238" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB238" s="18"/>
+      <c r="AC238" s="18"/>
+      <c r="AD238" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE238" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A239" s="10"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 02-B</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F239" s="13">
+        <v>0</v>
+      </c>
+      <c r="G239" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="H239" s="14">
+        <v>11.43</v>
+      </c>
+      <c r="I239" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="J239" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="K239" s="13">
+        <v>2</v>
+      </c>
+      <c r="L239" s="13">
+        <v>2</v>
+      </c>
+      <c r="M239" s="14"/>
+      <c r="N239" s="14"/>
+      <c r="O239" s="14"/>
+      <c r="P239" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q239" s="15">
+        <v>0.35650398816371298</v>
+      </c>
+      <c r="R239" s="15">
+        <v>38.958598963199996</v>
+      </c>
+      <c r="S239" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T239" s="15">
+        <v>46.754072792520198</v>
+      </c>
+      <c r="U239" s="15"/>
+      <c r="V239" s="13">
+        <v>1</v>
+      </c>
+      <c r="W239" s="22">
+        <f t="shared" si="4"/>
+        <v>1162821.9979679701</v>
+      </c>
+      <c r="X239" s="16"/>
+      <c r="Y239" s="17"/>
+      <c r="Z239" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA239" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB239" s="18"/>
+      <c r="AC239" s="18"/>
+      <c r="AD239" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE239" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A240" s="10"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 03-B</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F240" s="13">
+        <v>0</v>
+      </c>
+      <c r="G240" s="14">
+        <v>24.75</v>
+      </c>
+      <c r="H240" s="14">
+        <v>11.14</v>
+      </c>
+      <c r="I240" s="14">
+        <v>24.75</v>
+      </c>
+      <c r="J240" s="14">
+        <v>24.75</v>
+      </c>
+      <c r="K240" s="13">
+        <v>2</v>
+      </c>
+      <c r="L240" s="13">
+        <v>2</v>
+      </c>
+      <c r="M240" s="14"/>
+      <c r="N240" s="14"/>
+      <c r="O240" s="14"/>
+      <c r="P240" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q240" s="15">
+        <v>0.35612478370803302</v>
+      </c>
+      <c r="R240" s="15">
+        <v>38.003386624000001</v>
+      </c>
+      <c r="S240" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T240" s="15">
+        <v>45.5576156404572</v>
+      </c>
+      <c r="U240" s="15"/>
+      <c r="V240" s="13">
+        <v>1</v>
+      </c>
+      <c r="W240" s="22">
+        <f t="shared" si="4"/>
+        <v>1131651.6578778888</v>
+      </c>
+      <c r="X240" s="16"/>
+      <c r="Y240" s="17"/>
+      <c r="Z240" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA240" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB240" s="18"/>
+      <c r="AC240" s="18"/>
+      <c r="AD240" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE240" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A241" s="10"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 04-B</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F241" s="13">
+        <v>0</v>
+      </c>
+      <c r="G241" s="14">
+        <v>24.75</v>
+      </c>
+      <c r="H241" s="14">
+        <v>11.14</v>
+      </c>
+      <c r="I241" s="14">
+        <v>24.75</v>
+      </c>
+      <c r="J241" s="14">
+        <v>24.75</v>
+      </c>
+      <c r="K241" s="13">
+        <v>2</v>
+      </c>
+      <c r="L241" s="13">
+        <v>2</v>
+      </c>
+      <c r="M241" s="14"/>
+      <c r="N241" s="14"/>
+      <c r="O241" s="14"/>
+      <c r="P241" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q241" s="15">
+        <v>0.35612478370803302</v>
+      </c>
+      <c r="R241" s="15">
+        <v>38.003386624000001</v>
+      </c>
+      <c r="S241" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T241" s="15">
+        <v>45.5576156404572</v>
+      </c>
+      <c r="U241" s="15"/>
+      <c r="V241" s="13">
+        <v>1</v>
+      </c>
+      <c r="W241" s="22">
+        <f t="shared" si="4"/>
+        <v>1131651.6578778888</v>
+      </c>
+      <c r="X241" s="16"/>
+      <c r="Y241" s="17"/>
+      <c r="Z241" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA241" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB241" s="18"/>
+      <c r="AC241" s="18"/>
+      <c r="AD241" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE241" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A242" s="10"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 05-B</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F242" s="13">
+        <v>0</v>
+      </c>
+      <c r="G242" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="H242" s="14">
+        <v>14.97</v>
+      </c>
+      <c r="I242" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="J242" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="K242" s="13">
+        <v>2</v>
+      </c>
+      <c r="L242" s="13">
+        <v>2</v>
+      </c>
+      <c r="M242" s="14"/>
+      <c r="N242" s="14"/>
+      <c r="O242" s="14"/>
+      <c r="P242" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q242" s="15">
+        <v>0.30075674225827598</v>
+      </c>
+      <c r="R242" s="15">
+        <v>74.497772159999997</v>
+      </c>
+      <c r="S242" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T242" s="15">
+        <v>91.851554344565002</v>
+      </c>
+      <c r="U242" s="15"/>
+      <c r="V242" s="13">
+        <v>1</v>
+      </c>
+      <c r="W242" s="22">
+        <f t="shared" si="4"/>
+        <v>2452824.062097867</v>
+      </c>
+      <c r="X242" s="16"/>
+      <c r="Y242" s="17"/>
+      <c r="Z242" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA242" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB242" s="18"/>
+      <c r="AC242" s="18"/>
+      <c r="AD242" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE242" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A243" s="10"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 06-B</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F243" s="13">
+        <v>0</v>
+      </c>
+      <c r="G243" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="H243" s="14">
+        <v>14.97</v>
+      </c>
+      <c r="I243" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="J243" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="K243" s="13">
+        <v>2</v>
+      </c>
+      <c r="L243" s="13">
+        <v>2</v>
+      </c>
+      <c r="M243" s="14"/>
+      <c r="N243" s="14"/>
+      <c r="O243" s="14"/>
+      <c r="P243" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q243" s="15">
+        <v>0.30075674225827598</v>
+      </c>
+      <c r="R243" s="15">
+        <v>74.497772159999997</v>
+      </c>
+      <c r="S243" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T243" s="15">
+        <v>91.851554344565002</v>
+      </c>
+      <c r="U243" s="15"/>
+      <c r="V243" s="13">
+        <v>1</v>
+      </c>
+      <c r="W243" s="22">
+        <f t="shared" si="4"/>
+        <v>2452824.062097867</v>
+      </c>
+      <c r="X243" s="16"/>
+      <c r="Y243" s="17"/>
+      <c r="Z243" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA243" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB243" s="18"/>
+      <c r="AC243" s="18"/>
+      <c r="AD243" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE243" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A244" s="10"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 07-B</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F244" s="13">
+        <v>0</v>
+      </c>
+      <c r="G244" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="H244" s="14">
+        <v>14.97</v>
+      </c>
+      <c r="I244" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="J244" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="K244" s="13">
+        <v>2</v>
+      </c>
+      <c r="L244" s="13">
+        <v>2</v>
+      </c>
+      <c r="M244" s="14"/>
+      <c r="N244" s="14"/>
+      <c r="O244" s="14"/>
+      <c r="P244" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q244" s="15">
+        <v>0.30075674225827598</v>
+      </c>
+      <c r="R244" s="15">
+        <v>74.497772159999997</v>
+      </c>
+      <c r="S244" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T244" s="15">
+        <v>91.851554344565002</v>
+      </c>
+      <c r="U244" s="15"/>
+      <c r="V244" s="13">
+        <v>1</v>
+      </c>
+      <c r="W244" s="22">
+        <f t="shared" si="4"/>
+        <v>2452824.062097867</v>
+      </c>
+      <c r="X244" s="16"/>
+      <c r="Y244" s="17"/>
+      <c r="Z244" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA244" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB244" s="18"/>
+      <c r="AC244" s="18"/>
+      <c r="AD244" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE244" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A245" s="10"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 08-B</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F245" s="13">
+        <v>0</v>
+      </c>
+      <c r="G245" s="14">
+        <v>50</v>
+      </c>
+      <c r="H245" s="14">
+        <v>15</v>
+      </c>
+      <c r="I245" s="14">
+        <v>50</v>
+      </c>
+      <c r="J245" s="14">
+        <v>50</v>
+      </c>
+      <c r="K245" s="13">
+        <v>2</v>
+      </c>
+      <c r="L245" s="13">
+        <v>2</v>
+      </c>
+      <c r="M245" s="14"/>
+      <c r="N245" s="14"/>
+      <c r="O245" s="14"/>
+      <c r="P245" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q245" s="15">
+        <v>0.30402924242643098</v>
+      </c>
+      <c r="R245" s="15">
+        <v>71.195550361599999</v>
+      </c>
+      <c r="S245" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T245" s="15">
+        <v>92.035499457739306</v>
+      </c>
+      <c r="U245" s="15"/>
+      <c r="V245" s="13">
+        <v>1</v>
+      </c>
+      <c r="W245" s="22">
+        <f t="shared" si="4"/>
+        <v>2484481.9277395504</v>
+      </c>
+      <c r="X245" s="16"/>
+      <c r="Y245" s="17"/>
+      <c r="Z245" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA245" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB245" s="18"/>
+      <c r="AC245" s="18"/>
+      <c r="AD245" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE245" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A246" s="10"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 09-B</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F246" s="13">
+        <v>0</v>
+      </c>
+      <c r="G246" s="14">
+        <v>50</v>
+      </c>
+      <c r="H246" s="14">
+        <v>25</v>
+      </c>
+      <c r="I246" s="14">
+        <v>50</v>
+      </c>
+      <c r="J246" s="14">
+        <v>50</v>
+      </c>
+      <c r="K246" s="13">
+        <v>1</v>
+      </c>
+      <c r="L246" s="13">
+        <v>1</v>
+      </c>
+      <c r="M246" s="14"/>
+      <c r="N246" s="14"/>
+      <c r="O246" s="14"/>
+      <c r="P246" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q246" s="15">
+        <v>0.36449683126882698</v>
+      </c>
+      <c r="R246" s="15">
+        <v>75.010539519999995</v>
+      </c>
+      <c r="S246" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T246" s="15">
+        <v>92.035499457739306</v>
+      </c>
+      <c r="U246" s="15"/>
+      <c r="V246" s="13">
+        <v>1</v>
+      </c>
+      <c r="W246" s="22">
+        <f t="shared" si="4"/>
+        <v>2127581.5039987867</v>
+      </c>
+      <c r="X246" s="16"/>
+      <c r="Y246" s="17"/>
+      <c r="Z246" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA246" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB246" s="18"/>
+      <c r="AC246" s="18"/>
+      <c r="AD246" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE246" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A247" s="10"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 10-B</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F247" s="13">
+        <v>0</v>
+      </c>
+      <c r="G247" s="14">
+        <v>50</v>
+      </c>
+      <c r="H247" s="14">
+        <v>25</v>
+      </c>
+      <c r="I247" s="14">
+        <v>50</v>
+      </c>
+      <c r="J247" s="14">
+        <v>50</v>
+      </c>
+      <c r="K247" s="13">
+        <v>1</v>
+      </c>
+      <c r="L247" s="13">
+        <v>1</v>
+      </c>
+      <c r="M247" s="14"/>
+      <c r="N247" s="14"/>
+      <c r="O247" s="14"/>
+      <c r="P247" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q247" s="15">
+        <v>0.36449683126882698</v>
+      </c>
+      <c r="R247" s="15">
+        <v>75.010539519999995</v>
+      </c>
+      <c r="S247" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T247" s="15">
+        <v>92.035499457739306</v>
+      </c>
+      <c r="U247" s="15"/>
+      <c r="V247" s="13">
+        <v>1</v>
+      </c>
+      <c r="W247" s="22">
+        <f t="shared" si="4"/>
+        <v>2127581.5039987867</v>
+      </c>
+      <c r="X247" s="16"/>
+      <c r="Y247" s="17"/>
+      <c r="Z247" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA247" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB247" s="18"/>
+      <c r="AC247" s="18"/>
+      <c r="AD247" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE247" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A248" s="10"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 11-B</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F248" s="13">
+        <v>0</v>
+      </c>
+      <c r="G248" s="14">
+        <v>50</v>
+      </c>
+      <c r="H248" s="14">
+        <v>25</v>
+      </c>
+      <c r="I248" s="14">
+        <v>50</v>
+      </c>
+      <c r="J248" s="14">
+        <v>50</v>
+      </c>
+      <c r="K248" s="13">
+        <v>1</v>
+      </c>
+      <c r="L248" s="13">
+        <v>1</v>
+      </c>
+      <c r="M248" s="14"/>
+      <c r="N248" s="14"/>
+      <c r="O248" s="14"/>
+      <c r="P248" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q248" s="15">
+        <v>0.36449683126882698</v>
+      </c>
+      <c r="R248" s="15">
+        <v>75.010539519999995</v>
+      </c>
+      <c r="S248" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T248" s="15">
+        <v>92.035499457739306</v>
+      </c>
+      <c r="U248" s="15"/>
+      <c r="V248" s="13">
+        <v>1</v>
+      </c>
+      <c r="W248" s="22">
+        <f t="shared" si="4"/>
+        <v>2127581.5039987867</v>
+      </c>
+      <c r="X248" s="16"/>
+      <c r="Y248" s="17"/>
+      <c r="Z248" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA248" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB248" s="18"/>
+      <c r="AC248" s="18"/>
+      <c r="AD248" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE248" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A249" s="10"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 12-B</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F249" s="13">
+        <v>0</v>
+      </c>
+      <c r="G249" s="14">
+        <v>50</v>
+      </c>
+      <c r="H249" s="14">
+        <v>25</v>
+      </c>
+      <c r="I249" s="14">
+        <v>50</v>
+      </c>
+      <c r="J249" s="14">
+        <v>50</v>
+      </c>
+      <c r="K249" s="13">
+        <v>1</v>
+      </c>
+      <c r="L249" s="13">
+        <v>1</v>
+      </c>
+      <c r="M249" s="14"/>
+      <c r="N249" s="14"/>
+      <c r="O249" s="14"/>
+      <c r="P249" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q249" s="15">
+        <v>0.36449683126882698</v>
+      </c>
+      <c r="R249" s="15">
+        <v>75.010539519999995</v>
+      </c>
+      <c r="S249" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T249" s="15">
+        <v>92.035499457739306</v>
+      </c>
+      <c r="U249" s="15"/>
+      <c r="V249" s="13">
+        <v>1</v>
+      </c>
+      <c r="W249" s="22">
+        <f t="shared" si="4"/>
+        <v>2127581.5039987867</v>
+      </c>
+      <c r="X249" s="16"/>
+      <c r="Y249" s="17"/>
+      <c r="Z249" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA249" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB249" s="18"/>
+      <c r="AC249" s="18"/>
+      <c r="AD249" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE249" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A250" s="10"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 13-B</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F250" s="13">
+        <v>0</v>
+      </c>
+      <c r="G250" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="H250" s="14">
+        <v>6.48</v>
+      </c>
+      <c r="I250" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="J250" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="K250" s="13">
+        <v>1</v>
+      </c>
+      <c r="L250" s="13">
+        <v>1</v>
+      </c>
+      <c r="M250" s="14"/>
+      <c r="N250" s="14"/>
+      <c r="O250" s="14"/>
+      <c r="P250" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q250" s="15">
+        <v>0.30402924242643098</v>
+      </c>
+      <c r="R250" s="15">
+        <v>30.7572513024</v>
+      </c>
+      <c r="S250" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T250" s="15">
+        <v>39.759274993316602</v>
+      </c>
+      <c r="U250" s="15"/>
+      <c r="V250" s="13">
+        <v>1</v>
+      </c>
+      <c r="W250" s="22">
+        <f t="shared" si="4"/>
+        <v>1073296.1927834856</v>
+      </c>
+      <c r="X250" s="16"/>
+      <c r="Y250" s="17"/>
+      <c r="Z250" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA250" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB250" s="18"/>
+      <c r="AC250" s="18"/>
+      <c r="AD250" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE250" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A251" s="10"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 14-B</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F251" s="13">
+        <v>0</v>
+      </c>
+      <c r="G251" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="H251" s="14">
+        <v>6.48</v>
+      </c>
+      <c r="I251" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="J251" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="K251" s="13">
+        <v>1</v>
+      </c>
+      <c r="L251" s="13">
+        <v>1</v>
+      </c>
+      <c r="M251" s="14"/>
+      <c r="N251" s="14"/>
+      <c r="O251" s="14"/>
+      <c r="P251" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q251" s="15">
+        <v>0.30402924242643098</v>
+      </c>
+      <c r="R251" s="15">
+        <v>30.7572513024</v>
+      </c>
+      <c r="S251" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T251" s="15">
+        <v>39.759274993316602</v>
+      </c>
+      <c r="U251" s="15"/>
+      <c r="V251" s="13">
+        <v>1</v>
+      </c>
+      <c r="W251" s="22">
+        <f t="shared" si="4"/>
+        <v>1073296.1927834856</v>
+      </c>
+      <c r="X251" s="16"/>
+      <c r="Y251" s="17"/>
+      <c r="Z251" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA251" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB251" s="18"/>
+      <c r="AC251" s="18"/>
+      <c r="AD251" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE251" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A252" s="10"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 15-B</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F252" s="13">
+        <v>0</v>
+      </c>
+      <c r="G252" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="H252" s="14">
+        <v>6.48</v>
+      </c>
+      <c r="I252" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="J252" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="K252" s="13">
+        <v>1</v>
+      </c>
+      <c r="L252" s="13">
+        <v>1</v>
+      </c>
+      <c r="M252" s="14"/>
+      <c r="N252" s="14"/>
+      <c r="O252" s="14"/>
+      <c r="P252" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q252" s="15">
+        <v>0.30402924242643098</v>
+      </c>
+      <c r="R252" s="15">
+        <v>30.7572513024</v>
+      </c>
+      <c r="S252" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T252" s="15">
+        <v>39.759274993316602</v>
+      </c>
+      <c r="U252" s="15"/>
+      <c r="V252" s="13">
+        <v>1</v>
+      </c>
+      <c r="W252" s="22">
+        <f t="shared" si="4"/>
+        <v>1073296.1927834856</v>
+      </c>
+      <c r="X252" s="16"/>
+      <c r="Y252" s="17"/>
+      <c r="Z252" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA252" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB252" s="18"/>
+      <c r="AC252" s="18"/>
+      <c r="AD252" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE252" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A253" s="10"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 16-B</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F253" s="13">
+        <v>0</v>
+      </c>
+      <c r="G253" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="H253" s="14">
+        <v>22.45</v>
+      </c>
+      <c r="I253" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="J253" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="K253" s="13">
+        <v>2</v>
+      </c>
+      <c r="L253" s="13">
+        <v>2</v>
+      </c>
+      <c r="M253" s="14"/>
+      <c r="N253" s="14"/>
+      <c r="O253" s="14"/>
+      <c r="P253" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q253" s="15">
+        <v>0.35612478370803302</v>
+      </c>
+      <c r="R253" s="15">
+        <v>76.619163980799996</v>
+      </c>
+      <c r="S253" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T253" s="15">
+        <v>91.851554344565002</v>
+      </c>
+      <c r="U253" s="15"/>
+      <c r="V253" s="13">
+        <v>1</v>
+      </c>
+      <c r="W253" s="22">
+        <f t="shared" si="4"/>
+        <v>2282427.4804370352</v>
+      </c>
+      <c r="X253" s="16"/>
+      <c r="Y253" s="17"/>
+      <c r="Z253" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA253" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB253" s="18"/>
+      <c r="AC253" s="18"/>
+      <c r="AD253" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE253" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A254" s="10"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 17-B</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F254" s="13">
+        <v>0</v>
+      </c>
+      <c r="G254" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="H254" s="14">
+        <v>3.11</v>
+      </c>
+      <c r="I254" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="J254" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="K254" s="13">
+        <v>1</v>
+      </c>
+      <c r="L254" s="13">
+        <v>1</v>
+      </c>
+      <c r="M254" s="14"/>
+      <c r="N254" s="14"/>
+      <c r="O254" s="14"/>
+      <c r="P254" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q254" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R254" s="15">
+        <v>5.0778619135999996</v>
+      </c>
+      <c r="S254" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T254" s="15">
+        <v>12.7008945842804</v>
+      </c>
+      <c r="U254" s="15"/>
+      <c r="V254" s="13">
+        <v>1</v>
+      </c>
+      <c r="W254" s="22">
+        <f t="shared" si="4"/>
+        <v>394931.64933619817</v>
+      </c>
+      <c r="X254" s="16"/>
+      <c r="Y254" s="17"/>
+      <c r="Z254" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA254" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB254" s="18"/>
+      <c r="AC254" s="18"/>
+      <c r="AD254" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE254" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A255" s="10"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 18-B</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F255" s="13">
+        <v>0</v>
+      </c>
+      <c r="G255" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="H255" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="I255" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="J255" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="K255" s="13">
+        <v>1</v>
+      </c>
+      <c r="L255" s="13">
+        <v>1</v>
+      </c>
+      <c r="M255" s="14"/>
+      <c r="N255" s="14"/>
+      <c r="O255" s="14"/>
+      <c r="P255" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q255" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R255" s="15">
+        <v>2.8685671168</v>
+      </c>
+      <c r="S255" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T255" s="15">
+        <v>7.1787429123779098</v>
+      </c>
+      <c r="U255" s="15"/>
+      <c r="V255" s="13">
+        <v>1</v>
+      </c>
+      <c r="W255" s="22">
+        <f t="shared" si="4"/>
+        <v>224037.74302713081</v>
+      </c>
+      <c r="X255" s="16"/>
+      <c r="Y255" s="17"/>
+      <c r="Z255" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA255" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB255" s="18"/>
+      <c r="AC255" s="18"/>
+      <c r="AD255" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE255" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A256" s="10"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 19-B</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F256" s="13">
+        <v>0</v>
+      </c>
+      <c r="G256" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="H256" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="I256" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="J256" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="K256" s="13">
+        <v>1</v>
+      </c>
+      <c r="L256" s="13">
+        <v>1</v>
+      </c>
+      <c r="M256" s="14"/>
+      <c r="N256" s="14"/>
+      <c r="O256" s="14"/>
+      <c r="P256" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q256" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R256" s="15">
+        <v>2.8685671168</v>
+      </c>
+      <c r="S256" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T256" s="15">
+        <v>7.1787429123779098</v>
+      </c>
+      <c r="U256" s="15"/>
+      <c r="V256" s="13">
+        <v>1</v>
+      </c>
+      <c r="W256" s="22">
+        <f t="shared" si="4"/>
+        <v>224037.74302713081</v>
+      </c>
+      <c r="X256" s="16"/>
+      <c r="Y256" s="17"/>
+      <c r="Z256" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA256" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB256" s="18"/>
+      <c r="AC256" s="18"/>
+      <c r="AD256" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE256" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A257" s="10"/>
+      <c r="B257" s="11"/>
+      <c r="C257" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 20-B</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F257" s="13">
+        <v>0</v>
+      </c>
+      <c r="G257" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="H257" s="14">
+        <v>3.11</v>
+      </c>
+      <c r="I257" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="J257" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="K257" s="13">
+        <v>1</v>
+      </c>
+      <c r="L257" s="13">
+        <v>1</v>
+      </c>
+      <c r="M257" s="14"/>
+      <c r="N257" s="14"/>
+      <c r="O257" s="14"/>
+      <c r="P257" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q257" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R257" s="15">
+        <v>5.0778619135999996</v>
+      </c>
+      <c r="S257" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T257" s="15">
+        <v>12.7008945842804</v>
+      </c>
+      <c r="U257" s="15"/>
+      <c r="V257" s="13">
+        <v>1</v>
+      </c>
+      <c r="W257" s="22">
+        <f t="shared" si="4"/>
+        <v>394931.64933619817</v>
+      </c>
+      <c r="X257" s="16"/>
+      <c r="Y257" s="17"/>
+      <c r="Z257" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA257" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB257" s="18"/>
+      <c r="AC257" s="18"/>
+      <c r="AD257" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE257" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A258" s="10"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 21-B</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F258" s="13">
+        <v>0</v>
+      </c>
+      <c r="G258" s="14">
+        <v>100</v>
+      </c>
+      <c r="H258" s="14">
+        <v>20</v>
+      </c>
+      <c r="I258" s="14">
+        <v>100</v>
+      </c>
+      <c r="J258" s="14">
+        <v>100</v>
+      </c>
+      <c r="K258" s="13">
+        <v>1</v>
+      </c>
+      <c r="L258" s="13">
+        <v>1</v>
+      </c>
+      <c r="M258" s="14"/>
+      <c r="N258" s="14"/>
+      <c r="O258" s="14"/>
+      <c r="P258" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q258" s="15">
+        <v>0.562112038330145</v>
+      </c>
+      <c r="R258" s="15">
+        <v>176.4476437248</v>
+      </c>
+      <c r="S258" s="15">
+        <v>0.69966602300000003</v>
+      </c>
+      <c r="T258" s="15">
+        <v>184.07100260523299</v>
+      </c>
+      <c r="U258" s="15"/>
+      <c r="V258" s="13">
+        <v>1</v>
+      </c>
+      <c r="W258" s="22">
+        <f t="shared" si="4"/>
+        <v>10499420.117431825</v>
+      </c>
+      <c r="X258" s="16"/>
+      <c r="Y258" s="17"/>
+      <c r="Z258" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA258" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB258" s="18"/>
+      <c r="AC258" s="18"/>
+      <c r="AD258" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE258" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A259" s="10"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 22-B</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F259" s="13">
+        <v>0</v>
+      </c>
+      <c r="G259" s="14">
+        <v>100</v>
+      </c>
+      <c r="H259" s="14">
+        <v>20</v>
+      </c>
+      <c r="I259" s="14">
+        <v>100</v>
+      </c>
+      <c r="J259" s="14">
+        <v>100</v>
+      </c>
+      <c r="K259" s="13">
+        <v>1</v>
+      </c>
+      <c r="L259" s="13">
+        <v>1</v>
+      </c>
+      <c r="M259" s="14"/>
+      <c r="N259" s="14"/>
+      <c r="O259" s="14"/>
+      <c r="P259" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q259" s="15">
+        <v>0.562112038330145</v>
+      </c>
+      <c r="R259" s="15">
+        <v>176.4476437248</v>
+      </c>
+      <c r="S259" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T259" s="15">
+        <v>184.07099891547901</v>
+      </c>
+      <c r="U259" s="15"/>
+      <c r="V259" s="13">
+        <v>1</v>
+      </c>
+      <c r="W259" s="22">
+        <f t="shared" si="4"/>
+        <v>10499420.117431825</v>
+      </c>
+      <c r="X259" s="16"/>
+      <c r="Y259" s="17"/>
+      <c r="Z259" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA259" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB259" s="18"/>
+      <c r="AC259" s="18"/>
+      <c r="AD259" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE259" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A260" s="10"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 23-B</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F260" s="13">
+        <v>0</v>
+      </c>
+      <c r="G260" s="14">
+        <v>100</v>
+      </c>
+      <c r="H260" s="14">
+        <v>20</v>
+      </c>
+      <c r="I260" s="14">
+        <v>100</v>
+      </c>
+      <c r="J260" s="14">
+        <v>100</v>
+      </c>
+      <c r="K260" s="13">
+        <v>1</v>
+      </c>
+      <c r="L260" s="13">
+        <v>1</v>
+      </c>
+      <c r="M260" s="14"/>
+      <c r="N260" s="14"/>
+      <c r="O260" s="14"/>
+      <c r="P260" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q260" s="15">
+        <v>0.562112038330145</v>
+      </c>
+      <c r="R260" s="15">
+        <v>176.4476437248</v>
+      </c>
+      <c r="S260" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T260" s="15">
+        <v>184.07099891547901</v>
+      </c>
+      <c r="U260" s="15"/>
+      <c r="V260" s="13">
+        <v>1</v>
+      </c>
+      <c r="W260" s="22">
+        <f t="shared" si="4"/>
+        <v>10499420.117431825</v>
+      </c>
+      <c r="X260" s="16"/>
+      <c r="Y260" s="17"/>
+      <c r="Z260" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA260" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB260" s="18"/>
+      <c r="AC260" s="18"/>
+      <c r="AD260" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE260" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A261" s="10"/>
+      <c r="B261" s="11"/>
+      <c r="C261" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 24-B</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F261" s="13">
+        <v>0</v>
+      </c>
+      <c r="G261" s="14">
+        <v>100</v>
+      </c>
+      <c r="H261" s="14">
+        <v>20</v>
+      </c>
+      <c r="I261" s="14">
+        <v>100</v>
+      </c>
+      <c r="J261" s="14">
+        <v>100</v>
+      </c>
+      <c r="K261" s="13">
+        <v>1</v>
+      </c>
+      <c r="L261" s="13">
+        <v>1</v>
+      </c>
+      <c r="M261" s="14"/>
+      <c r="N261" s="14"/>
+      <c r="O261" s="14"/>
+      <c r="P261" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q261" s="15">
+        <v>0.562112038330145</v>
+      </c>
+      <c r="R261" s="15">
+        <v>176.4476437248</v>
+      </c>
+      <c r="S261" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T261" s="15">
+        <v>184.07099891547901</v>
+      </c>
+      <c r="U261" s="15"/>
+      <c r="V261" s="13">
+        <v>1</v>
+      </c>
+      <c r="W261" s="22">
+        <f t="shared" si="4"/>
+        <v>10499420.117431825</v>
+      </c>
+      <c r="X261" s="16"/>
+      <c r="Y261" s="17"/>
+      <c r="Z261" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA261" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB261" s="18"/>
+      <c r="AC261" s="18"/>
+      <c r="AD261" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE261" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A262" s="10"/>
+      <c r="B262" s="11"/>
+      <c r="C262" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 25-B</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F262" s="13">
+        <v>0</v>
+      </c>
+      <c r="G262" s="14">
+        <v>100</v>
+      </c>
+      <c r="H262" s="14">
+        <v>20</v>
+      </c>
+      <c r="I262" s="14">
+        <v>100</v>
+      </c>
+      <c r="J262" s="14">
+        <v>100</v>
+      </c>
+      <c r="K262" s="13">
+        <v>1</v>
+      </c>
+      <c r="L262" s="13">
+        <v>1</v>
+      </c>
+      <c r="M262" s="14"/>
+      <c r="N262" s="14"/>
+      <c r="O262" s="14"/>
+      <c r="P262" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q262" s="15">
+        <v>0.562112038330145</v>
+      </c>
+      <c r="R262" s="15">
+        <v>176.4476437248</v>
+      </c>
+      <c r="S262" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T262" s="15">
+        <v>184.07099891547901</v>
+      </c>
+      <c r="U262" s="15"/>
+      <c r="V262" s="13">
+        <v>1</v>
+      </c>
+      <c r="W262" s="22">
+        <f t="shared" si="4"/>
+        <v>10499420.117431825</v>
+      </c>
+      <c r="X262" s="16"/>
+      <c r="Y262" s="17"/>
+      <c r="Z262" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA262" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB262" s="18"/>
+      <c r="AC262" s="18"/>
+      <c r="AD262" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE262" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A263" s="10"/>
+      <c r="B263" s="11"/>
+      <c r="C263" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 26-B</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F263" s="13">
+        <v>0</v>
+      </c>
+      <c r="G263" s="14">
+        <v>100</v>
+      </c>
+      <c r="H263" s="14">
+        <v>20</v>
+      </c>
+      <c r="I263" s="14">
+        <v>100</v>
+      </c>
+      <c r="J263" s="14">
+        <v>100</v>
+      </c>
+      <c r="K263" s="13">
+        <v>1</v>
+      </c>
+      <c r="L263" s="13">
+        <v>1</v>
+      </c>
+      <c r="M263" s="14"/>
+      <c r="N263" s="14"/>
+      <c r="O263" s="14"/>
+      <c r="P263" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q263" s="15">
+        <v>0.562112038330145</v>
+      </c>
+      <c r="R263" s="15">
+        <v>176.4476437248</v>
+      </c>
+      <c r="S263" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T263" s="15">
+        <v>184.07099891547901</v>
+      </c>
+      <c r="U263" s="15"/>
+      <c r="V263" s="13">
+        <v>1</v>
+      </c>
+      <c r="W263" s="22">
+        <f t="shared" si="4"/>
+        <v>10499420.117431825</v>
+      </c>
+      <c r="X263" s="16"/>
+      <c r="Y263" s="17"/>
+      <c r="Z263" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA263" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB263" s="18"/>
+      <c r="AC263" s="18"/>
+      <c r="AD263" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE263" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A264" s="10"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>CT NG 27-B</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F264" s="13">
+        <v>0</v>
+      </c>
+      <c r="G264" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="H264" s="14">
+        <v>0</v>
+      </c>
+      <c r="I264" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="J264" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="K264" s="13">
+        <v>1</v>
+      </c>
+      <c r="L264" s="13">
+        <v>1</v>
+      </c>
+      <c r="M264" s="14"/>
+      <c r="N264" s="14"/>
+      <c r="O264" s="14"/>
+      <c r="P264" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q264" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R264" s="15">
+        <v>0.77354618880000003</v>
+      </c>
+      <c r="S264" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T264" s="15">
+        <v>1.9327802157135401</v>
+      </c>
+      <c r="U264" s="15"/>
+      <c r="V264" s="13">
+        <v>1</v>
+      </c>
+      <c r="W264" s="22">
+        <f t="shared" ref="W264:W303" si="6">(G264-H264)/P264*Q264*5000</f>
+        <v>109413.78147836622</v>
+      </c>
+      <c r="X264" s="16"/>
+      <c r="Y264" s="17"/>
+      <c r="Z264" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA264" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB264" s="18"/>
+      <c r="AC264" s="18"/>
+      <c r="AD264" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE264" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A265" s="10"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="12" t="str">
+        <f t="shared" ref="C265:C303" si="7">C135&amp;"-B"</f>
+        <v>CT NG 28-B</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F265" s="13">
+        <v>0</v>
+      </c>
+      <c r="G265" s="14">
+        <v>44.02</v>
+      </c>
+      <c r="H265" s="14">
+        <v>13.21</v>
+      </c>
+      <c r="I265" s="14">
+        <v>44.02</v>
+      </c>
+      <c r="J265" s="14">
+        <v>44.02</v>
+      </c>
+      <c r="K265" s="13">
+        <v>2</v>
+      </c>
+      <c r="L265" s="13">
+        <v>2</v>
+      </c>
+      <c r="M265" s="14"/>
+      <c r="N265" s="14"/>
+      <c r="O265" s="14"/>
+      <c r="P265" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q265" s="15">
+        <v>0.292601019718355</v>
+      </c>
+      <c r="R265" s="15">
+        <v>67.550506956800007</v>
+      </c>
+      <c r="S265" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T265" s="15">
+        <v>81.028093658759801</v>
+      </c>
+      <c r="U265" s="15"/>
+      <c r="V265" s="13">
+        <v>1</v>
+      </c>
+      <c r="W265" s="22">
+        <f t="shared" si="6"/>
+        <v>2104844.2918541506</v>
+      </c>
+      <c r="X265" s="16"/>
+      <c r="Y265" s="17"/>
+      <c r="Z265" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA265" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB265" s="18"/>
+      <c r="AC265" s="18"/>
+      <c r="AD265" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE265" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A266" s="10"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 29-B</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F266" s="13">
+        <v>0</v>
+      </c>
+      <c r="G266" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="H266" s="14">
+        <v>0</v>
+      </c>
+      <c r="I266" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="J266" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="K266" s="13">
+        <v>1</v>
+      </c>
+      <c r="L266" s="13">
+        <v>1</v>
+      </c>
+      <c r="M266" s="14"/>
+      <c r="N266" s="14"/>
+      <c r="O266" s="14"/>
+      <c r="P266" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q266" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R266" s="15">
+        <v>0.44244497919999998</v>
+      </c>
+      <c r="S266" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T266" s="15">
+        <v>1.1042132899991699</v>
+      </c>
+      <c r="U266" s="15"/>
+      <c r="V266" s="13">
+        <v>1</v>
+      </c>
+      <c r="W266" s="22">
+        <f t="shared" si="6"/>
+        <v>62522.160844780694</v>
+      </c>
+      <c r="X266" s="16"/>
+      <c r="Y266" s="17"/>
+      <c r="Z266" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA266" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB266" s="18"/>
+      <c r="AC266" s="18"/>
+      <c r="AD266" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE266" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A267" s="10"/>
+      <c r="B267" s="11"/>
+      <c r="C267" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 30-B</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F267" s="13">
+        <v>0</v>
+      </c>
+      <c r="G267" s="14">
+        <v>18</v>
+      </c>
+      <c r="H267" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="I267" s="14">
+        <v>18</v>
+      </c>
+      <c r="J267" s="14">
+        <v>18</v>
+      </c>
+      <c r="K267" s="13">
+        <v>2</v>
+      </c>
+      <c r="L267" s="13">
+        <v>2</v>
+      </c>
+      <c r="M267" s="14"/>
+      <c r="N267" s="14"/>
+      <c r="O267" s="14"/>
+      <c r="P267" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q267" s="15">
+        <v>0.302679573437797</v>
+      </c>
+      <c r="R267" s="15">
+        <v>24.498559411199999</v>
+      </c>
+      <c r="S267" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T267" s="15">
+        <v>33.132910031414902</v>
+      </c>
+      <c r="U267" s="15"/>
+      <c r="V267" s="13">
+        <v>1</v>
+      </c>
+      <c r="W267" s="22">
+        <f t="shared" si="6"/>
+        <v>890442.94777754194</v>
+      </c>
+      <c r="X267" s="16"/>
+      <c r="Y267" s="17"/>
+      <c r="Z267" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA267" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB267" s="18"/>
+      <c r="AC267" s="18"/>
+      <c r="AD267" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE267" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A268" s="10"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 31-B</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E268" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F268" s="13">
+        <v>0</v>
+      </c>
+      <c r="G268" s="14">
+        <v>1.54</v>
+      </c>
+      <c r="H268" s="14">
+        <v>0</v>
+      </c>
+      <c r="I268" s="14">
+        <v>1.54</v>
+      </c>
+      <c r="J268" s="14">
+        <v>1.54</v>
+      </c>
+      <c r="K268" s="13">
+        <v>1</v>
+      </c>
+      <c r="L268" s="13">
+        <v>1</v>
+      </c>
+      <c r="M268" s="14"/>
+      <c r="N268" s="14"/>
+      <c r="O268" s="14"/>
+      <c r="P268" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q268" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R268" s="15">
+        <v>1.1339483904000001</v>
+      </c>
+      <c r="S268" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T268" s="15">
+        <v>2.83459962012564</v>
+      </c>
+      <c r="U268" s="15"/>
+      <c r="V268" s="13">
+        <v>1</v>
+      </c>
+      <c r="W268" s="22">
+        <f t="shared" si="6"/>
+        <v>160473.54616827046</v>
+      </c>
+      <c r="X268" s="16"/>
+      <c r="Y268" s="17"/>
+      <c r="Z268" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA268" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB268" s="18"/>
+      <c r="AC268" s="18"/>
+      <c r="AD268" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE268" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A269" s="10"/>
+      <c r="B269" s="11"/>
+      <c r="C269" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 32-B</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E269" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F269" s="13">
+        <v>0</v>
+      </c>
+      <c r="G269" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="H269" s="14">
+        <v>0</v>
+      </c>
+      <c r="I269" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="J269" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="K269" s="13">
+        <v>1</v>
+      </c>
+      <c r="L269" s="13">
+        <v>1</v>
+      </c>
+      <c r="M269" s="14"/>
+      <c r="N269" s="14"/>
+      <c r="O269" s="14"/>
+      <c r="P269" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q269" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R269" s="15">
+        <v>1.1778998784000001</v>
+      </c>
+      <c r="S269" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T269" s="15">
+        <v>2.9452922546022098</v>
+      </c>
+      <c r="U269" s="15"/>
+      <c r="V269" s="13">
+        <v>1</v>
+      </c>
+      <c r="W269" s="22">
+        <f t="shared" si="6"/>
+        <v>166725.76225274854</v>
+      </c>
+      <c r="X269" s="16"/>
+      <c r="Y269" s="17"/>
+      <c r="Z269" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA269" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB269" s="18"/>
+      <c r="AC269" s="18"/>
+      <c r="AD269" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE269" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A270" s="10"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 33-B</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E270" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F270" s="13">
+        <v>0</v>
+      </c>
+      <c r="G270" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="H270" s="14">
+        <v>0</v>
+      </c>
+      <c r="I270" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="J270" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="K270" s="13">
+        <v>1</v>
+      </c>
+      <c r="L270" s="13">
+        <v>1</v>
+      </c>
+      <c r="M270" s="14"/>
+      <c r="N270" s="14"/>
+      <c r="O270" s="14"/>
+      <c r="P270" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q270" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R270" s="15">
+        <v>0.95521233920000004</v>
+      </c>
+      <c r="S270" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T270" s="15">
+        <v>2.3929143041259699</v>
+      </c>
+      <c r="U270" s="15"/>
+      <c r="V270" s="13">
+        <v>1</v>
+      </c>
+      <c r="W270" s="22">
+        <f t="shared" si="6"/>
+        <v>135464.6818303582</v>
+      </c>
+      <c r="X270" s="16"/>
+      <c r="Y270" s="17"/>
+      <c r="Z270" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA270" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB270" s="18"/>
+      <c r="AC270" s="18"/>
+      <c r="AD270" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE270" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A271" s="10"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 34-B</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E271" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F271" s="13">
+        <v>0</v>
+      </c>
+      <c r="G271" s="14">
+        <v>100</v>
+      </c>
+      <c r="H271" s="14">
+        <v>45</v>
+      </c>
+      <c r="I271" s="14">
+        <v>100</v>
+      </c>
+      <c r="J271" s="14">
+        <v>100</v>
+      </c>
+      <c r="K271" s="13">
+        <v>1</v>
+      </c>
+      <c r="L271" s="13">
+        <v>1</v>
+      </c>
+      <c r="M271" s="14"/>
+      <c r="N271" s="14"/>
+      <c r="O271" s="14"/>
+      <c r="P271" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q271" s="15">
+        <v>0.55827992406859905</v>
+      </c>
+      <c r="R271" s="15">
+        <v>156.84234997760001</v>
+      </c>
+      <c r="S271" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T271" s="15">
+        <v>592.47852775919705</v>
+      </c>
+      <c r="U271" s="15"/>
+      <c r="V271" s="13">
+        <v>1</v>
+      </c>
+      <c r="W271" s="22">
+        <f t="shared" si="6"/>
+        <v>7169141.3064098163</v>
+      </c>
+      <c r="X271" s="16"/>
+      <c r="Y271" s="17"/>
+      <c r="Z271" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA271" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB271" s="18"/>
+      <c r="AC271" s="18"/>
+      <c r="AD271" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE271" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A272" s="10"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 35-B</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F272" s="13">
+        <v>0</v>
+      </c>
+      <c r="G272" s="14">
+        <v>100</v>
+      </c>
+      <c r="H272" s="14">
+        <v>45</v>
+      </c>
+      <c r="I272" s="14">
+        <v>100</v>
+      </c>
+      <c r="J272" s="14">
+        <v>100</v>
+      </c>
+      <c r="K272" s="13">
+        <v>1</v>
+      </c>
+      <c r="L272" s="13">
+        <v>1</v>
+      </c>
+      <c r="M272" s="14"/>
+      <c r="N272" s="14"/>
+      <c r="O272" s="14"/>
+      <c r="P272" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q272" s="15">
+        <v>0.55827992406859905</v>
+      </c>
+      <c r="R272" s="15">
+        <v>156.84234997760001</v>
+      </c>
+      <c r="S272" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T272" s="15">
+        <v>592.47852775919705</v>
+      </c>
+      <c r="U272" s="15"/>
+      <c r="V272" s="13">
+        <v>1</v>
+      </c>
+      <c r="W272" s="22">
+        <f t="shared" si="6"/>
+        <v>7169141.3064098163</v>
+      </c>
+      <c r="X272" s="16"/>
+      <c r="Y272" s="17"/>
+      <c r="Z272" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA272" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB272" s="18"/>
+      <c r="AC272" s="18"/>
+      <c r="AD272" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE272" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A273" s="10"/>
+      <c r="B273" s="11"/>
+      <c r="C273" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 36-B</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E273" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F273" s="13">
+        <v>0</v>
+      </c>
+      <c r="G273" s="14">
+        <v>100</v>
+      </c>
+      <c r="H273" s="14">
+        <v>45</v>
+      </c>
+      <c r="I273" s="14">
+        <v>100</v>
+      </c>
+      <c r="J273" s="14">
+        <v>100</v>
+      </c>
+      <c r="K273" s="13">
+        <v>1</v>
+      </c>
+      <c r="L273" s="13">
+        <v>1</v>
+      </c>
+      <c r="M273" s="14"/>
+      <c r="N273" s="14"/>
+      <c r="O273" s="14"/>
+      <c r="P273" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q273" s="15">
+        <v>0.55827992406859905</v>
+      </c>
+      <c r="R273" s="15">
+        <v>156.84234997760001</v>
+      </c>
+      <c r="S273" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T273" s="15">
+        <v>592.47852775919705</v>
+      </c>
+      <c r="U273" s="15"/>
+      <c r="V273" s="13">
+        <v>1</v>
+      </c>
+      <c r="W273" s="22">
+        <f t="shared" si="6"/>
+        <v>7169141.3064098163</v>
+      </c>
+      <c r="X273" s="16"/>
+      <c r="Y273" s="17"/>
+      <c r="Z273" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA273" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB273" s="18"/>
+      <c r="AC273" s="18"/>
+      <c r="AD273" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE273" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A274" s="10"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 37-B</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F274" s="13">
+        <v>0</v>
+      </c>
+      <c r="G274" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="H274" s="14">
+        <v>0</v>
+      </c>
+      <c r="I274" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="J274" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="K274" s="13">
+        <v>1</v>
+      </c>
+      <c r="L274" s="13">
+        <v>1</v>
+      </c>
+      <c r="M274" s="14"/>
+      <c r="N274" s="14"/>
+      <c r="O274" s="14"/>
+      <c r="P274" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q274" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R274" s="15">
+        <v>0.95521233920000004</v>
+      </c>
+      <c r="S274" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T274" s="15">
+        <v>2.3929143041259699</v>
+      </c>
+      <c r="U274" s="15"/>
+      <c r="V274" s="13">
+        <v>1</v>
+      </c>
+      <c r="W274" s="22">
+        <f t="shared" si="6"/>
+        <v>135464.6818303582</v>
+      </c>
+      <c r="X274" s="16"/>
+      <c r="Y274" s="17"/>
+      <c r="Z274" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA274" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB274" s="18"/>
+      <c r="AC274" s="18"/>
+      <c r="AD274" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE274" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A275" s="10"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 38-B</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F275" s="13">
+        <v>0</v>
+      </c>
+      <c r="G275" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="H275" s="14">
+        <v>0</v>
+      </c>
+      <c r="I275" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="J275" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="K275" s="13">
+        <v>1</v>
+      </c>
+      <c r="L275" s="13">
+        <v>1</v>
+      </c>
+      <c r="M275" s="14"/>
+      <c r="N275" s="14"/>
+      <c r="O275" s="14"/>
+      <c r="P275" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q275" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R275" s="15">
+        <v>6.9912166912</v>
+      </c>
+      <c r="S275" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T275" s="15">
+        <v>17.486723192532299</v>
+      </c>
+      <c r="U275" s="15"/>
+      <c r="V275" s="13">
+        <v>1</v>
+      </c>
+      <c r="W275" s="22">
+        <f t="shared" si="6"/>
+        <v>989934.21337569447</v>
+      </c>
+      <c r="X275" s="16"/>
+      <c r="Y275" s="17"/>
+      <c r="Z275" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA275" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB275" s="18"/>
+      <c r="AC275" s="18"/>
+      <c r="AD275" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE275" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A276" s="10"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 39-B</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E276" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F276" s="13">
+        <v>0</v>
+      </c>
+      <c r="G276" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="H276" s="14">
+        <v>0</v>
+      </c>
+      <c r="I276" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="J276" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="K276" s="13">
+        <v>1</v>
+      </c>
+      <c r="L276" s="13">
+        <v>1</v>
+      </c>
+      <c r="M276" s="14"/>
+      <c r="N276" s="14"/>
+      <c r="O276" s="14"/>
+      <c r="P276" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q276" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R276" s="15">
+        <v>0.95521233920000004</v>
+      </c>
+      <c r="S276" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T276" s="15">
+        <v>2.3929143041259699</v>
+      </c>
+      <c r="U276" s="15"/>
+      <c r="V276" s="13">
+        <v>1</v>
+      </c>
+      <c r="W276" s="22">
+        <f t="shared" si="6"/>
+        <v>135464.6818303582</v>
+      </c>
+      <c r="X276" s="16"/>
+      <c r="Y276" s="17"/>
+      <c r="Z276" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA276" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB276" s="18"/>
+      <c r="AC276" s="18"/>
+      <c r="AD276" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE276" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A277" s="10"/>
+      <c r="B277" s="11"/>
+      <c r="C277" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 40-B</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F277" s="13">
+        <v>0</v>
+      </c>
+      <c r="G277" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="H277" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="I277" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="J277" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="K277" s="13">
+        <v>1</v>
+      </c>
+      <c r="L277" s="13">
+        <v>1</v>
+      </c>
+      <c r="M277" s="14"/>
+      <c r="N277" s="14"/>
+      <c r="O277" s="14"/>
+      <c r="P277" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q277" s="15">
+        <v>0.44630349587803397</v>
+      </c>
+      <c r="R277" s="15">
+        <v>2.2796171776</v>
+      </c>
+      <c r="S277" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T277" s="15">
+        <v>5.7060967850767996</v>
+      </c>
+      <c r="U277" s="15"/>
+      <c r="V277" s="13">
+        <v>1</v>
+      </c>
+      <c r="W277" s="22">
+        <f t="shared" si="6"/>
+        <v>226121.81505529015</v>
+      </c>
+      <c r="X277" s="16"/>
+      <c r="Y277" s="17"/>
+      <c r="Z277" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA277" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB277" s="18"/>
+      <c r="AC277" s="18"/>
+      <c r="AD277" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE277" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A278" s="10"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 41-B</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F278" s="13">
+        <v>0</v>
+      </c>
+      <c r="G278" s="14">
+        <v>54</v>
+      </c>
+      <c r="H278" s="14">
+        <v>16.2</v>
+      </c>
+      <c r="I278" s="14">
+        <v>48</v>
+      </c>
+      <c r="J278" s="14">
+        <v>48</v>
+      </c>
+      <c r="K278" s="13">
+        <v>8</v>
+      </c>
+      <c r="L278" s="13">
+        <v>8</v>
+      </c>
+      <c r="M278" s="14"/>
+      <c r="N278" s="14"/>
+      <c r="O278" s="14"/>
+      <c r="P278" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q278" s="15">
+        <v>0.400735827118397</v>
+      </c>
+      <c r="R278" s="15">
+        <v>51.124370841599998</v>
+      </c>
+      <c r="S278" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T278" s="15">
+        <v>99.398187483291494</v>
+      </c>
+      <c r="U278" s="15"/>
+      <c r="V278" s="13">
+        <v>1</v>
+      </c>
+      <c r="W278" s="22">
+        <f t="shared" si="6"/>
+        <v>3536734.1158161308</v>
+      </c>
+      <c r="X278" s="16"/>
+      <c r="Y278" s="17"/>
+      <c r="Z278" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA278" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB278" s="18"/>
+      <c r="AC278" s="18"/>
+      <c r="AD278" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE278" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A279" s="10"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 42-B</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F279" s="13">
+        <v>0</v>
+      </c>
+      <c r="G279" s="14">
+        <v>82.4</v>
+      </c>
+      <c r="H279" s="14">
+        <v>19.78</v>
+      </c>
+      <c r="I279" s="14">
+        <v>79.8</v>
+      </c>
+      <c r="J279" s="14">
+        <v>79.8</v>
+      </c>
+      <c r="K279" s="13">
+        <v>2</v>
+      </c>
+      <c r="L279" s="13">
+        <v>2</v>
+      </c>
+      <c r="M279" s="14"/>
+      <c r="N279" s="14"/>
+      <c r="O279" s="14"/>
+      <c r="P279" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q279" s="15">
+        <v>0.31694368151060898</v>
+      </c>
+      <c r="R279" s="15">
+        <v>72.103881113599996</v>
+      </c>
+      <c r="S279" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T279" s="15">
+        <v>151.67441194771399</v>
+      </c>
+      <c r="U279" s="15"/>
+      <c r="V279" s="13">
+        <v>1</v>
+      </c>
+      <c r="W279" s="22">
+        <f t="shared" si="6"/>
+        <v>4633910.0767173823</v>
+      </c>
+      <c r="X279" s="16"/>
+      <c r="Y279" s="17"/>
+      <c r="Z279" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA279" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB279" s="18"/>
+      <c r="AC279" s="18"/>
+      <c r="AD279" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE279" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A280" s="10"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 43-B</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E280" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F280" s="13">
+        <v>0</v>
+      </c>
+      <c r="G280" s="14">
+        <v>25</v>
+      </c>
+      <c r="H280" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="I280" s="14">
+        <v>25</v>
+      </c>
+      <c r="J280" s="14">
+        <v>25</v>
+      </c>
+      <c r="K280" s="13">
+        <v>1</v>
+      </c>
+      <c r="L280" s="13">
+        <v>1</v>
+      </c>
+      <c r="M280" s="14"/>
+      <c r="N280" s="14"/>
+      <c r="O280" s="14"/>
+      <c r="P280" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q280" s="15">
+        <v>0.35920380582543898</v>
+      </c>
+      <c r="R280" s="15">
+        <v>45.475139583999997</v>
+      </c>
+      <c r="S280" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T280" s="15">
+        <v>46.017749728869603</v>
+      </c>
+      <c r="U280" s="15"/>
+      <c r="V280" s="13">
+        <v>1</v>
+      </c>
+      <c r="W280" s="22">
+        <f t="shared" si="6"/>
+        <v>1467680.142913426</v>
+      </c>
+      <c r="X280" s="16"/>
+      <c r="Y280" s="17"/>
+      <c r="Z280" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA280" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB280" s="18"/>
+      <c r="AC280" s="18"/>
+      <c r="AD280" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE280" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A281" s="10"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 44-B</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E281" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F281" s="13">
+        <v>0</v>
+      </c>
+      <c r="G281" s="14">
+        <v>60.35</v>
+      </c>
+      <c r="H281" s="14">
+        <v>27.16</v>
+      </c>
+      <c r="I281" s="14">
+        <v>60.35</v>
+      </c>
+      <c r="J281" s="14">
+        <v>60.35</v>
+      </c>
+      <c r="K281" s="13">
+        <v>2</v>
+      </c>
+      <c r="L281" s="13">
+        <v>2</v>
+      </c>
+      <c r="M281" s="14"/>
+      <c r="N281" s="14"/>
+      <c r="O281" s="14"/>
+      <c r="P281" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q281" s="15">
+        <v>0.35612478370803302</v>
+      </c>
+      <c r="R281" s="15">
+        <v>92.667317299199993</v>
+      </c>
+      <c r="S281" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T281" s="15">
+        <v>111.087112639637</v>
+      </c>
+      <c r="U281" s="15"/>
+      <c r="V281" s="13">
+        <v>1</v>
+      </c>
+      <c r="W281" s="22">
+        <f t="shared" si="6"/>
+        <v>2759700.1120475484</v>
+      </c>
+      <c r="X281" s="16"/>
+      <c r="Y281" s="17"/>
+      <c r="Z281" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA281" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB281" s="18"/>
+      <c r="AC281" s="18"/>
+      <c r="AD281" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE281" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A282" s="10"/>
+      <c r="B282" s="11"/>
+      <c r="C282" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 45-B</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F282" s="13">
+        <v>0</v>
+      </c>
+      <c r="G282" s="14">
+        <v>60.35</v>
+      </c>
+      <c r="H282" s="14">
+        <v>27.16</v>
+      </c>
+      <c r="I282" s="14">
+        <v>60.35</v>
+      </c>
+      <c r="J282" s="14">
+        <v>60.35</v>
+      </c>
+      <c r="K282" s="13">
+        <v>2</v>
+      </c>
+      <c r="L282" s="13">
+        <v>2</v>
+      </c>
+      <c r="M282" s="14"/>
+      <c r="N282" s="14"/>
+      <c r="O282" s="14"/>
+      <c r="P282" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q282" s="15">
+        <v>0.35612478370803302</v>
+      </c>
+      <c r="R282" s="15">
+        <v>92.667317299199993</v>
+      </c>
+      <c r="S282" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T282" s="15">
+        <v>111.087112639637</v>
+      </c>
+      <c r="U282" s="15"/>
+      <c r="V282" s="13">
+        <v>1</v>
+      </c>
+      <c r="W282" s="22">
+        <f t="shared" si="6"/>
+        <v>2759700.1120475484</v>
+      </c>
+      <c r="X282" s="16"/>
+      <c r="Y282" s="17"/>
+      <c r="Z282" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA282" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB282" s="18"/>
+      <c r="AC282" s="18"/>
+      <c r="AD282" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE282" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A283" s="10"/>
+      <c r="B283" s="11"/>
+      <c r="C283" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 46-B</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F283" s="13">
+        <v>0</v>
+      </c>
+      <c r="G283" s="14">
+        <v>180</v>
+      </c>
+      <c r="H283" s="14">
+        <v>81</v>
+      </c>
+      <c r="I283" s="14">
+        <v>180</v>
+      </c>
+      <c r="J283" s="14">
+        <v>180</v>
+      </c>
+      <c r="K283" s="13">
+        <v>2</v>
+      </c>
+      <c r="L283" s="13">
+        <v>2</v>
+      </c>
+      <c r="M283" s="14"/>
+      <c r="N283" s="14"/>
+      <c r="O283" s="14"/>
+      <c r="P283" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q283" s="15">
+        <v>0.56822628060201796</v>
+      </c>
+      <c r="R283" s="15">
+        <v>317.60517268479998</v>
+      </c>
+      <c r="S283" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T283" s="15">
+        <v>1066.46113292217</v>
+      </c>
+      <c r="U283" s="15"/>
+      <c r="V283" s="13">
+        <v>1</v>
+      </c>
+      <c r="W283" s="22">
+        <f t="shared" si="6"/>
+        <v>13134361.067355469</v>
+      </c>
+      <c r="X283" s="16"/>
+      <c r="Y283" s="17"/>
+      <c r="Z283" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA283" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB283" s="18"/>
+      <c r="AC283" s="18"/>
+      <c r="AD283" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE283" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A284" s="10"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 47-B</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F284" s="13">
+        <v>0</v>
+      </c>
+      <c r="G284" s="14">
+        <v>180</v>
+      </c>
+      <c r="H284" s="14">
+        <v>81</v>
+      </c>
+      <c r="I284" s="14">
+        <v>180</v>
+      </c>
+      <c r="J284" s="14">
+        <v>180</v>
+      </c>
+      <c r="K284" s="13">
+        <v>2</v>
+      </c>
+      <c r="L284" s="13">
+        <v>2</v>
+      </c>
+      <c r="M284" s="14"/>
+      <c r="N284" s="14"/>
+      <c r="O284" s="14"/>
+      <c r="P284" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q284" s="15">
+        <v>0.56822628060201796</v>
+      </c>
+      <c r="R284" s="15">
+        <v>317.60517268479998</v>
+      </c>
+      <c r="S284" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T284" s="15">
+        <v>1066.46113292217</v>
+      </c>
+      <c r="U284" s="15"/>
+      <c r="V284" s="13">
+        <v>1</v>
+      </c>
+      <c r="W284" s="22">
+        <f t="shared" si="6"/>
+        <v>13134361.067355469</v>
+      </c>
+      <c r="X284" s="16"/>
+      <c r="Y284" s="17"/>
+      <c r="Z284" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA284" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB284" s="18"/>
+      <c r="AC284" s="18"/>
+      <c r="AD284" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE284" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A285" s="10"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 48-B</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F285" s="13">
+        <v>0</v>
+      </c>
+      <c r="G285" s="14">
+        <v>180</v>
+      </c>
+      <c r="H285" s="14">
+        <v>81</v>
+      </c>
+      <c r="I285" s="14">
+        <v>180</v>
+      </c>
+      <c r="J285" s="14">
+        <v>180</v>
+      </c>
+      <c r="K285" s="13">
+        <v>2</v>
+      </c>
+      <c r="L285" s="13">
+        <v>2</v>
+      </c>
+      <c r="M285" s="14"/>
+      <c r="N285" s="14"/>
+      <c r="O285" s="14"/>
+      <c r="P285" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q285" s="15">
+        <v>0.56822628060201796</v>
+      </c>
+      <c r="R285" s="15">
+        <v>317.60517268479998</v>
+      </c>
+      <c r="S285" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T285" s="15">
+        <v>1066.46113292217</v>
+      </c>
+      <c r="U285" s="15"/>
+      <c r="V285" s="13">
+        <v>1</v>
+      </c>
+      <c r="W285" s="22">
+        <f t="shared" si="6"/>
+        <v>13134361.067355469</v>
+      </c>
+      <c r="X285" s="16"/>
+      <c r="Y285" s="17"/>
+      <c r="Z285" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA285" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB285" s="18"/>
+      <c r="AC285" s="18"/>
+      <c r="AD285" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE285" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A286" s="10"/>
+      <c r="B286" s="11"/>
+      <c r="C286" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 49-B</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F286" s="13">
+        <v>0</v>
+      </c>
+      <c r="G286" s="14">
+        <v>180</v>
+      </c>
+      <c r="H286" s="14">
+        <v>81</v>
+      </c>
+      <c r="I286" s="14">
+        <v>180</v>
+      </c>
+      <c r="J286" s="14">
+        <v>180</v>
+      </c>
+      <c r="K286" s="13">
+        <v>2</v>
+      </c>
+      <c r="L286" s="13">
+        <v>2</v>
+      </c>
+      <c r="M286" s="14"/>
+      <c r="N286" s="14"/>
+      <c r="O286" s="14"/>
+      <c r="P286" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q286" s="15">
+        <v>0.56822628060201796</v>
+      </c>
+      <c r="R286" s="15">
+        <v>317.60517268479998</v>
+      </c>
+      <c r="S286" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T286" s="15">
+        <v>1066.46113292217</v>
+      </c>
+      <c r="U286" s="15"/>
+      <c r="V286" s="13">
+        <v>1</v>
+      </c>
+      <c r="W286" s="22">
+        <f t="shared" si="6"/>
+        <v>13134361.067355469</v>
+      </c>
+      <c r="X286" s="16"/>
+      <c r="Y286" s="17"/>
+      <c r="Z286" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA286" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB286" s="18"/>
+      <c r="AC286" s="18"/>
+      <c r="AD286" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE286" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A287" s="10"/>
+      <c r="B287" s="11"/>
+      <c r="C287" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 50-B</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F287" s="13">
+        <v>0</v>
+      </c>
+      <c r="G287" s="14">
+        <v>49.96</v>
+      </c>
+      <c r="H287" s="14">
+        <v>22.48</v>
+      </c>
+      <c r="I287" s="14">
+        <v>49.96</v>
+      </c>
+      <c r="J287" s="14">
+        <v>49.96</v>
+      </c>
+      <c r="K287" s="13">
+        <v>2</v>
+      </c>
+      <c r="L287" s="13">
+        <v>2</v>
+      </c>
+      <c r="M287" s="14"/>
+      <c r="N287" s="14"/>
+      <c r="O287" s="14"/>
+      <c r="P287" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q287" s="15">
+        <v>0.35766668948133801</v>
+      </c>
+      <c r="R287" s="15">
+        <v>76.381825945599999</v>
+      </c>
+      <c r="S287" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T287" s="15">
+        <v>296.002414198476</v>
+      </c>
+      <c r="U287" s="15"/>
+      <c r="V287" s="13">
+        <v>1</v>
+      </c>
+      <c r="W287" s="22">
+        <f t="shared" si="6"/>
+        <v>2294814.9137879652</v>
+      </c>
+      <c r="X287" s="16"/>
+      <c r="Y287" s="17"/>
+      <c r="Z287" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA287" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB287" s="18"/>
+      <c r="AC287" s="18"/>
+      <c r="AD287" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE287" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A288" s="10"/>
+      <c r="B288" s="11"/>
+      <c r="C288" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 51-B</v>
+      </c>
+      <c r="D288" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E288" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F288" s="13">
+        <v>0</v>
+      </c>
+      <c r="G288" s="14">
+        <v>8.57</v>
+      </c>
+      <c r="H288" s="14">
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="I288" s="14">
+        <v>8.57</v>
+      </c>
+      <c r="J288" s="14">
+        <v>8.57</v>
+      </c>
+      <c r="K288" s="13">
+        <v>8</v>
+      </c>
+      <c r="L288" s="13">
+        <v>8</v>
+      </c>
+      <c r="M288" s="14"/>
+      <c r="N288" s="14"/>
+      <c r="O288" s="14"/>
+      <c r="P288" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q288" s="15">
+        <v>0.61015197904673701</v>
+      </c>
+      <c r="R288" s="15">
+        <v>23.865657983999998</v>
+      </c>
+      <c r="S288" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T288" s="15">
+        <v>50.775362567549102</v>
+      </c>
+      <c r="U288" s="15"/>
+      <c r="V288" s="13">
+        <v>1</v>
+      </c>
+      <c r="W288" s="22">
+        <f t="shared" si="6"/>
+        <v>854612.66879214509</v>
+      </c>
+      <c r="X288" s="16"/>
+      <c r="Y288" s="17"/>
+      <c r="Z288" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA288" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB288" s="18"/>
+      <c r="AC288" s="18"/>
+      <c r="AD288" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE288" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A289" s="10"/>
+      <c r="B289" s="11"/>
+      <c r="C289" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 52-B</v>
+      </c>
+      <c r="D289" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E289" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F289" s="13">
+        <v>0</v>
+      </c>
+      <c r="G289" s="14">
+        <v>10.71</v>
+      </c>
+      <c r="H289" s="14">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="I289" s="14">
+        <v>10.71</v>
+      </c>
+      <c r="J289" s="14">
+        <v>10.71</v>
+      </c>
+      <c r="K289" s="13">
+        <v>8</v>
+      </c>
+      <c r="L289" s="13">
+        <v>8</v>
+      </c>
+      <c r="M289" s="14"/>
+      <c r="N289" s="14"/>
+      <c r="O289" s="14"/>
+      <c r="P289" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q289" s="15">
+        <v>0.61015197904673701</v>
+      </c>
+      <c r="R289" s="15">
+        <v>29.8254797568</v>
+      </c>
+      <c r="S289" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T289" s="15">
+        <v>63.454552713696799</v>
+      </c>
+      <c r="U289" s="15"/>
+      <c r="V289" s="13">
+        <v>1</v>
+      </c>
+      <c r="W289" s="22">
+        <f t="shared" si="6"/>
+        <v>1068016.532411187</v>
+      </c>
+      <c r="X289" s="16"/>
+      <c r="Y289" s="17"/>
+      <c r="Z289" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA289" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB289" s="18"/>
+      <c r="AC289" s="18"/>
+      <c r="AD289" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE289" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A290" s="10"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 53-B</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F290" s="13">
+        <v>0</v>
+      </c>
+      <c r="G290" s="14">
+        <v>10.71</v>
+      </c>
+      <c r="H290" s="14">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="I290" s="14">
+        <v>10.71</v>
+      </c>
+      <c r="J290" s="14">
+        <v>10.71</v>
+      </c>
+      <c r="K290" s="13">
+        <v>8</v>
+      </c>
+      <c r="L290" s="13">
+        <v>8</v>
+      </c>
+      <c r="M290" s="14"/>
+      <c r="N290" s="14"/>
+      <c r="O290" s="14"/>
+      <c r="P290" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q290" s="15">
+        <v>0.61015197904673701</v>
+      </c>
+      <c r="R290" s="15">
+        <v>29.8254797568</v>
+      </c>
+      <c r="S290" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T290" s="15">
+        <v>63.454552713696799</v>
+      </c>
+      <c r="U290" s="15"/>
+      <c r="V290" s="13">
+        <v>1</v>
+      </c>
+      <c r="W290" s="22">
+        <f t="shared" si="6"/>
+        <v>1068016.532411187</v>
+      </c>
+      <c r="X290" s="16"/>
+      <c r="Y290" s="17"/>
+      <c r="Z290" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA290" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB290" s="18"/>
+      <c r="AC290" s="18"/>
+      <c r="AD290" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE290" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A291" s="10"/>
+      <c r="B291" s="11"/>
+      <c r="C291" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 54-B</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F291" s="13">
+        <v>0</v>
+      </c>
+      <c r="G291" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="H291" s="14">
+        <v>22.45</v>
+      </c>
+      <c r="I291" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="J291" s="14">
+        <v>49.9</v>
+      </c>
+      <c r="K291" s="13">
+        <v>2</v>
+      </c>
+      <c r="L291" s="13">
+        <v>2</v>
+      </c>
+      <c r="M291" s="14"/>
+      <c r="N291" s="14"/>
+      <c r="O291" s="14"/>
+      <c r="P291" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q291" s="15">
+        <v>0.36864900689089702</v>
+      </c>
+      <c r="R291" s="15">
+        <v>76.979566182400006</v>
+      </c>
+      <c r="S291" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T291" s="15">
+        <v>295.64700402405299</v>
+      </c>
+      <c r="U291" s="15"/>
+      <c r="V291" s="13">
+        <v>1</v>
+      </c>
+      <c r="W291" s="22">
+        <f t="shared" si="6"/>
+        <v>2362696.061764223</v>
+      </c>
+      <c r="X291" s="16"/>
+      <c r="Y291" s="17"/>
+      <c r="Z291" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA291" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB291" s="18"/>
+      <c r="AC291" s="18"/>
+      <c r="AD291" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE291" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A292" s="10"/>
+      <c r="B292" s="11"/>
+      <c r="C292" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 55-B</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E292" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F292" s="13">
+        <v>0</v>
+      </c>
+      <c r="G292" s="14">
+        <v>15</v>
+      </c>
+      <c r="H292" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I292" s="14">
+        <v>15</v>
+      </c>
+      <c r="J292" s="14">
+        <v>15</v>
+      </c>
+      <c r="K292" s="13">
+        <v>2</v>
+      </c>
+      <c r="L292" s="13">
+        <v>2</v>
+      </c>
+      <c r="M292" s="14"/>
+      <c r="N292" s="14"/>
+      <c r="O292" s="14"/>
+      <c r="P292" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q292" s="15">
+        <v>0.45520963644204399</v>
+      </c>
+      <c r="R292" s="15">
+        <v>20.246985471999999</v>
+      </c>
+      <c r="S292" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T292" s="15">
+        <v>88.871534988950501</v>
+      </c>
+      <c r="U292" s="15"/>
+      <c r="V292" s="13">
+        <v>1</v>
+      </c>
+      <c r="W292" s="22">
+        <f t="shared" si="6"/>
+        <v>1115971.7131619197</v>
+      </c>
+      <c r="X292" s="16"/>
+      <c r="Y292" s="17"/>
+      <c r="Z292" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA292" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB292" s="18"/>
+      <c r="AC292" s="18"/>
+      <c r="AD292" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE292" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A293" s="10"/>
+      <c r="B293" s="11"/>
+      <c r="C293" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 56-B</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E293" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F293" s="13">
+        <v>0</v>
+      </c>
+      <c r="G293" s="14">
+        <v>46.9</v>
+      </c>
+      <c r="H293" s="14">
+        <v>21.1</v>
+      </c>
+      <c r="I293" s="14">
+        <v>46.9</v>
+      </c>
+      <c r="J293" s="14">
+        <v>46.9</v>
+      </c>
+      <c r="K293" s="13">
+        <v>2</v>
+      </c>
+      <c r="L293" s="13">
+        <v>2</v>
+      </c>
+      <c r="M293" s="14"/>
+      <c r="N293" s="14"/>
+      <c r="O293" s="14"/>
+      <c r="P293" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q293" s="15">
+        <v>0.35901077902498801</v>
+      </c>
+      <c r="R293" s="15">
+        <v>71.435818495999996</v>
+      </c>
+      <c r="S293" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T293" s="15">
+        <v>277.87215441530998</v>
+      </c>
+      <c r="U293" s="15"/>
+      <c r="V293" s="13">
+        <v>1</v>
+      </c>
+      <c r="W293" s="22">
+        <f t="shared" si="6"/>
+        <v>2162617.1087080385</v>
+      </c>
+      <c r="X293" s="16"/>
+      <c r="Y293" s="17"/>
+      <c r="Z293" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA293" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB293" s="18"/>
+      <c r="AC293" s="18"/>
+      <c r="AD293" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE293" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A294" s="10"/>
+      <c r="B294" s="11"/>
+      <c r="C294" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 66-B</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E294" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F294" s="13">
+        <v>0</v>
+      </c>
+      <c r="G294" s="14">
+        <v>45</v>
+      </c>
+      <c r="H294" s="14">
+        <v>20.25</v>
+      </c>
+      <c r="I294" s="14">
+        <v>45</v>
+      </c>
+      <c r="J294" s="14">
+        <v>45</v>
+      </c>
+      <c r="K294" s="13">
+        <v>2</v>
+      </c>
+      <c r="L294" s="13">
+        <v>2</v>
+      </c>
+      <c r="M294" s="14"/>
+      <c r="N294" s="14"/>
+      <c r="O294" s="14"/>
+      <c r="P294" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q294" s="15">
+        <v>0.35612478370803302</v>
+      </c>
+      <c r="R294" s="15">
+        <v>69.097599334400002</v>
+      </c>
+      <c r="S294" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T294" s="15">
+        <v>266.61514757780498</v>
+      </c>
+      <c r="U294" s="15"/>
+      <c r="V294" s="13">
+        <v>1</v>
+      </c>
+      <c r="W294" s="22">
+        <f t="shared" si="6"/>
+        <v>2057926.4167874905</v>
+      </c>
+      <c r="X294" s="16"/>
+      <c r="Y294" s="17"/>
+      <c r="Z294" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA294" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB294" s="18"/>
+      <c r="AC294" s="18"/>
+      <c r="AD294" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE294" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A295" s="10"/>
+      <c r="B295" s="11"/>
+      <c r="C295" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 67-B</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F295" s="13">
+        <v>0</v>
+      </c>
+      <c r="G295" s="14">
+        <v>45</v>
+      </c>
+      <c r="H295" s="14">
+        <v>20.25</v>
+      </c>
+      <c r="I295" s="14">
+        <v>45</v>
+      </c>
+      <c r="J295" s="14">
+        <v>45</v>
+      </c>
+      <c r="K295" s="13">
+        <v>2</v>
+      </c>
+      <c r="L295" s="13">
+        <v>2</v>
+      </c>
+      <c r="M295" s="14"/>
+      <c r="N295" s="14"/>
+      <c r="O295" s="14"/>
+      <c r="P295" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q295" s="15">
+        <v>0.35612478370803302</v>
+      </c>
+      <c r="R295" s="15">
+        <v>69.097599334400002</v>
+      </c>
+      <c r="S295" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T295" s="15">
+        <v>266.61514757780498</v>
+      </c>
+      <c r="U295" s="15"/>
+      <c r="V295" s="13">
+        <v>1</v>
+      </c>
+      <c r="W295" s="22">
+        <f t="shared" si="6"/>
+        <v>2057926.4167874905</v>
+      </c>
+      <c r="X295" s="16"/>
+      <c r="Y295" s="17"/>
+      <c r="Z295" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA295" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB295" s="18"/>
+      <c r="AC295" s="18"/>
+      <c r="AD295" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE295" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A296" s="10"/>
+      <c r="B296" s="11"/>
+      <c r="C296" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 68-B</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F296" s="13">
+        <v>0</v>
+      </c>
+      <c r="G296" s="14">
+        <v>46.7</v>
+      </c>
+      <c r="H296" s="14">
+        <v>21.01</v>
+      </c>
+      <c r="I296" s="14">
+        <v>46.7</v>
+      </c>
+      <c r="J296" s="14">
+        <v>46.7</v>
+      </c>
+      <c r="K296" s="13">
+        <v>2</v>
+      </c>
+      <c r="L296" s="13">
+        <v>2</v>
+      </c>
+      <c r="M296" s="14"/>
+      <c r="N296" s="14"/>
+      <c r="O296" s="14"/>
+      <c r="P296" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q296" s="15">
+        <v>0.356607852432202</v>
+      </c>
+      <c r="R296" s="15">
+        <v>71.6086943488</v>
+      </c>
+      <c r="S296" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T296" s="15">
+        <v>276.68763470421999</v>
+      </c>
+      <c r="U296" s="15"/>
+      <c r="V296" s="13">
+        <v>1</v>
+      </c>
+      <c r="W296" s="22">
+        <f t="shared" si="6"/>
+        <v>2138983.5598337273</v>
+      </c>
+      <c r="X296" s="16"/>
+      <c r="Y296" s="17"/>
+      <c r="Z296" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA296" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB296" s="18"/>
+      <c r="AC296" s="18"/>
+      <c r="AD296" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE296" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A297" s="10"/>
+      <c r="B297" s="11"/>
+      <c r="C297" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 69-B</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F297" s="13">
+        <v>0</v>
+      </c>
+      <c r="G297" s="14">
+        <v>49.5</v>
+      </c>
+      <c r="H297" s="14">
+        <v>22.27</v>
+      </c>
+      <c r="I297" s="14">
+        <v>49.5</v>
+      </c>
+      <c r="J297" s="14">
+        <v>49.5</v>
+      </c>
+      <c r="K297" s="13">
+        <v>2</v>
+      </c>
+      <c r="L297" s="13">
+        <v>2</v>
+      </c>
+      <c r="M297" s="14"/>
+      <c r="N297" s="14"/>
+      <c r="O297" s="14"/>
+      <c r="P297" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q297" s="15">
+        <v>0.43643797029895698</v>
+      </c>
+      <c r="R297" s="15">
+        <v>172.50959040000001</v>
+      </c>
+      <c r="S297" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T297" s="15">
+        <v>293.276879379967</v>
+      </c>
+      <c r="U297" s="15"/>
+      <c r="V297" s="13">
+        <v>1</v>
+      </c>
+      <c r="W297" s="22">
+        <f>(G297-H297)/P297*Q297*1000</f>
+        <v>554948.40141141391</v>
+      </c>
+      <c r="X297" s="16"/>
+      <c r="Y297" s="17"/>
+      <c r="Z297" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA297" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB297" s="18"/>
+      <c r="AC297" s="18"/>
+      <c r="AD297" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE297" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A298" s="10"/>
+      <c r="B298" s="11"/>
+      <c r="C298" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 70-B</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F298" s="13">
+        <v>0</v>
+      </c>
+      <c r="G298" s="14">
+        <v>44.02</v>
+      </c>
+      <c r="H298" s="14">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="I298" s="14">
+        <v>44.02</v>
+      </c>
+      <c r="J298" s="14">
+        <v>44.02</v>
+      </c>
+      <c r="K298" s="13">
+        <v>2</v>
+      </c>
+      <c r="L298" s="13">
+        <v>2</v>
+      </c>
+      <c r="M298" s="14"/>
+      <c r="N298" s="14"/>
+      <c r="O298" s="14"/>
+      <c r="P298" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q298" s="15">
+        <v>0.35779459746251102</v>
+      </c>
+      <c r="R298" s="15">
+        <v>67.275077632000006</v>
+      </c>
+      <c r="S298" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T298" s="15">
+        <v>260.80921037731798</v>
+      </c>
+      <c r="U298" s="15"/>
+      <c r="V298" s="13">
+        <v>1</v>
+      </c>
+      <c r="W298" s="22">
+        <f t="shared" ref="W298:W303" si="8">(G298-H298)/P298*Q298*1000</f>
+        <v>404492.99420439225</v>
+      </c>
+      <c r="X298" s="16"/>
+      <c r="Y298" s="17"/>
+      <c r="Z298" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA298" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB298" s="18"/>
+      <c r="AC298" s="18"/>
+      <c r="AD298" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE298" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A299" s="10"/>
+      <c r="B299" s="11"/>
+      <c r="C299" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 71-B</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F299" s="13">
+        <v>0</v>
+      </c>
+      <c r="G299" s="14">
+        <v>44.02</v>
+      </c>
+      <c r="H299" s="14">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="I299" s="14">
+        <v>44.02</v>
+      </c>
+      <c r="J299" s="14">
+        <v>44.02</v>
+      </c>
+      <c r="K299" s="13">
+        <v>2</v>
+      </c>
+      <c r="L299" s="13">
+        <v>2</v>
+      </c>
+      <c r="M299" s="14"/>
+      <c r="N299" s="14"/>
+      <c r="O299" s="14"/>
+      <c r="P299" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q299" s="15">
+        <v>0.35779459746251102</v>
+      </c>
+      <c r="R299" s="15">
+        <v>67.275077632000006</v>
+      </c>
+      <c r="S299" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T299" s="15">
+        <v>260.80921037731798</v>
+      </c>
+      <c r="U299" s="15"/>
+      <c r="V299" s="13">
+        <v>1</v>
+      </c>
+      <c r="W299" s="22">
+        <f t="shared" si="8"/>
+        <v>404492.99420439225</v>
+      </c>
+      <c r="X299" s="16"/>
+      <c r="Y299" s="17"/>
+      <c r="Z299" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA299" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB299" s="18"/>
+      <c r="AC299" s="18"/>
+      <c r="AD299" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE299" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A300" s="10"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 72-B</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F300" s="13">
+        <v>0</v>
+      </c>
+      <c r="G300" s="14">
+        <v>50</v>
+      </c>
+      <c r="H300" s="14">
+        <v>22.5</v>
+      </c>
+      <c r="I300" s="14">
+        <v>50</v>
+      </c>
+      <c r="J300" s="14">
+        <v>50</v>
+      </c>
+      <c r="K300" s="13">
+        <v>2</v>
+      </c>
+      <c r="L300" s="13">
+        <v>2</v>
+      </c>
+      <c r="M300" s="14"/>
+      <c r="N300" s="14"/>
+      <c r="O300" s="14"/>
+      <c r="P300" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q300" s="15">
+        <v>0.43609009052544601</v>
+      </c>
+      <c r="R300" s="15">
+        <v>174.252999424</v>
+      </c>
+      <c r="S300" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T300" s="15">
+        <v>296.239535185075</v>
+      </c>
+      <c r="U300" s="15"/>
+      <c r="V300" s="13">
+        <v>1</v>
+      </c>
+      <c r="W300" s="22">
+        <f t="shared" si="8"/>
+        <v>560004.28217401076</v>
+      </c>
+      <c r="X300" s="16"/>
+      <c r="Y300" s="17"/>
+      <c r="Z300" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA300" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB300" s="18"/>
+      <c r="AC300" s="18"/>
+      <c r="AD300" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE300" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A301" s="10"/>
+      <c r="B301" s="11"/>
+      <c r="C301" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 73-B</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F301" s="13">
+        <v>0</v>
+      </c>
+      <c r="G301" s="14">
+        <v>50</v>
+      </c>
+      <c r="H301" s="14">
+        <v>22.5</v>
+      </c>
+      <c r="I301" s="14">
+        <v>50</v>
+      </c>
+      <c r="J301" s="14">
+        <v>50</v>
+      </c>
+      <c r="K301" s="13">
+        <v>2</v>
+      </c>
+      <c r="L301" s="13">
+        <v>2</v>
+      </c>
+      <c r="M301" s="14"/>
+      <c r="N301" s="14"/>
+      <c r="O301" s="14"/>
+      <c r="P301" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q301" s="15">
+        <v>0.43609009052544601</v>
+      </c>
+      <c r="R301" s="15">
+        <v>174.252999424</v>
+      </c>
+      <c r="S301" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T301" s="15">
+        <v>296.239535185075</v>
+      </c>
+      <c r="U301" s="15"/>
+      <c r="V301" s="13">
+        <v>1</v>
+      </c>
+      <c r="W301" s="22">
+        <f t="shared" si="8"/>
+        <v>560004.28217401076</v>
+      </c>
+      <c r="X301" s="16"/>
+      <c r="Y301" s="17"/>
+      <c r="Z301" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA301" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB301" s="18"/>
+      <c r="AC301" s="18"/>
+      <c r="AD301" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE301" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A302" s="10"/>
+      <c r="B302" s="11"/>
+      <c r="C302" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 74-B</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F302" s="13">
+        <v>0</v>
+      </c>
+      <c r="G302" s="14">
+        <v>42</v>
+      </c>
+      <c r="H302" s="14">
+        <v>16.8</v>
+      </c>
+      <c r="I302" s="14">
+        <v>42</v>
+      </c>
+      <c r="J302" s="14">
+        <v>42</v>
+      </c>
+      <c r="K302" s="13">
+        <v>8</v>
+      </c>
+      <c r="L302" s="13">
+        <v>4</v>
+      </c>
+      <c r="M302" s="14"/>
+      <c r="N302" s="14"/>
+      <c r="O302" s="14"/>
+      <c r="P302" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q302" s="15">
+        <v>0.424857117212529</v>
+      </c>
+      <c r="R302" s="15">
+        <v>50.008003046399999</v>
+      </c>
+      <c r="S302" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T302" s="15">
+        <v>248.840840580015</v>
+      </c>
+      <c r="U302" s="15"/>
+      <c r="V302" s="13">
+        <v>1</v>
+      </c>
+      <c r="W302" s="22">
+        <f t="shared" si="8"/>
+        <v>499949.19648945366</v>
+      </c>
+      <c r="X302" s="16"/>
+      <c r="Y302" s="17"/>
+      <c r="Z302" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA302" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB302" s="18"/>
+      <c r="AC302" s="18"/>
+      <c r="AD302" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE302" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A303" s="10"/>
+      <c r="B303" s="11"/>
+      <c r="C303" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>CT NG 75-B</v>
+      </c>
+      <c r="D303" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E303" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F303" s="13">
+        <v>0</v>
+      </c>
+      <c r="G303" s="14">
+        <v>50.4</v>
+      </c>
+      <c r="H303" s="14">
+        <v>21.91</v>
+      </c>
+      <c r="I303" s="14">
+        <v>50.4</v>
+      </c>
+      <c r="J303" s="14">
+        <v>50.4</v>
+      </c>
+      <c r="K303" s="13">
+        <v>1</v>
+      </c>
+      <c r="L303" s="13">
+        <v>1</v>
+      </c>
+      <c r="M303" s="14"/>
+      <c r="N303" s="14"/>
+      <c r="O303" s="14"/>
+      <c r="P303" s="15">
+        <v>2.14149746192893E-2</v>
+      </c>
+      <c r="Q303" s="15">
+        <v>0.31666536478188601</v>
+      </c>
+      <c r="R303" s="15">
+        <v>44.083342463999998</v>
+      </c>
+      <c r="S303" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T303" s="15">
+        <v>298.60911721820798</v>
+      </c>
+      <c r="U303" s="15"/>
+      <c r="V303" s="13">
+        <v>1</v>
+      </c>
+      <c r="W303" s="22">
+        <f t="shared" si="8"/>
+        <v>421284.47047094093</v>
+      </c>
+      <c r="X303" s="16"/>
+      <c r="Y303" s="17"/>
+      <c r="Z303" s="13">
+        <v>1980</v>
+      </c>
+      <c r="AA303" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AB303" s="18"/>
+      <c r="AC303" s="18"/>
+      <c r="AD303" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE303" s="19" t="s">
         <v>99</v>
       </c>
     </row>
